--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373216.6300679506</v>
+        <v>362778.8071382731</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19417002.83439732</v>
+        <v>19417002.83439731</v>
       </c>
     </row>
     <row r="8">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="G11" t="n">
-        <v>121.891631658108</v>
+        <v>107.3621491644615</v>
       </c>
       <c r="H11" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.70077364567953</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.66137551878195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>84.87035142859449</v>
+        <v>111.1613841420483</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>22.49179773586699</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="T13" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>107.3621491644615</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>116.8234155649313</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3621491644615</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.70077364567953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="T14" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25.66137551878207</v>
       </c>
     </row>
     <row r="15">
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="E15" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="F15" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>107.3621491644615</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>111.1613841420484</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553738</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="U16" t="n">
-        <v>13.60633383892408</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>107.3621491644616</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.66137551878188</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567955</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="T17" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>107.3621491644615</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>109.9158126618171</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>109.9158126618169</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.60633383892404</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.75581532553738</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>107.3621491644615</v>
       </c>
       <c r="X19" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25.66137551878184</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>25.66137551878199</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567955</v>
+        <v>81.70077364567953</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>107.3621491644615</v>
       </c>
       <c r="W21" t="n">
-        <v>109.9158126618168</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.75581532553738</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8916316581079</v>
+        <v>107.3621491644615</v>
       </c>
       <c r="U22" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="W22" t="n">
-        <v>13.60633383892399</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>19.07819557112205</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>56.24885980696067</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>2.589242301558226</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>117.5531977205725</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>43.09129505888222</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>169.9497884024187</v>
       </c>
       <c r="U24" t="n">
         <v>207.876589386284</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>163.2181163256853</v>
+        <v>181.7063664513136</v>
       </c>
       <c r="T25" t="n">
-        <v>228.6835454197902</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>210.1952952941626</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>42.99119894154976</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>295.8438667898484</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.84911892006761</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5803489251584</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.9999264732239</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>46.93491665443848</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0.3385008803064448</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>109.3225839704759</v>
       </c>
       <c r="T27" t="n">
         <v>169.9497884024187</v>
@@ -2693,13 +2693,13 @@
         <v>207.876589386284</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>181.9096038279444</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -2718,22 +2718,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.4765883651609</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.1888869238709</v>
+        <v>137.9059956035296</v>
       </c>
       <c r="I28" t="n">
-        <v>98.8361003088233</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>171.0207211739524</v>
+        <v>181.7063664513136</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.6835454197902</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>406.5901805003334</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>65.56770624966914</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>42.96355513366399</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2876,22 +2876,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.5531977205725</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>74.80101896226314</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.927272141139305</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>107.6780344548184</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>160.6444927794549</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.876589386284</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -2936,7 +2936,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
         <v>177.5210747552478</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2364399379800397</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.4765883651609</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.1888869238709</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.7063664513136</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.6835454197902</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5246806588969</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>207.2403202036919</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>332.0755913065742</v>
+        <v>406.5901805003334</v>
       </c>
       <c r="H32" t="n">
-        <v>295.8438667898484</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.731761552887385</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.9999264732239</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,22 +3113,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>47.04843925385529</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>116.5455164053052</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>74.80101896226314</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.927272141139305</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>169.9497884024187</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.876589386284</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>108.4495886068714</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.6835454197902</v>
       </c>
       <c r="U34" t="n">
-        <v>267.7988094264996</v>
+        <v>282.5246806588969</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.756528123194</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>290.4421955890188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.362513702515</v>
       </c>
       <c r="G36" t="n">
         <v>117.5531977205725</v>
       </c>
       <c r="H36" t="n">
-        <v>74.80101896226314</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>3.927272141139305</v>
@@ -3398,7 +3398,7 @@
         <v>109.3225839704759</v>
       </c>
       <c r="T36" t="n">
-        <v>169.9497884024187</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>207.876589386284</v>
@@ -3407,13 +3407,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>47.98873097085222</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,16 +3429,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>117.4568897074362</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4765883651609</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.1888869238709</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>162.8854744799997</v>
+        <v>181.7063664513136</v>
       </c>
       <c r="T37" t="n">
         <v>228.6835454197902</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5246806588969</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>213.1260726307622</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>406.5901805003334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>252.9999264732239</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>172.3890484029947</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
@@ -3599,7 +3599,7 @@
         <v>117.5531977205725</v>
       </c>
       <c r="H39" t="n">
-        <v>74.80101896226314</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>144.5059013351127</v>
+        <v>169.9497884024187</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.876589386284</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>140.9066017407343</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.4301700907009</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.7063664513136</v>
       </c>
       <c r="T40" t="n">
-        <v>228.6835454197902</v>
+        <v>77.33682916452796</v>
       </c>
       <c r="U40" t="n">
         <v>282.5246806588969</v>
@@ -3726,10 +3726,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>150.1808361920694</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>39.27788766783863</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>370.7451001583602</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.5803489251584</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.9999264732239</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -3830,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>69.4790243626697</v>
       </c>
       <c r="G42" t="n">
         <v>117.5531977205725</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>74.80101896226314</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.927272141139305</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>207.876589386284</v>
       </c>
       <c r="V42" t="n">
-        <v>218.2435459821639</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -3906,16 +3906,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.4765883651609</v>
       </c>
       <c r="H43" t="n">
-        <v>144.1888869238709</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.7063664513136</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>227.4182103269145</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>181.6345301427494</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>406.5901805003334</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>295.8438667898484</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>63.21658277929161</v>
+        <v>122.5773851140387</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4058,16 +4058,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>16.45414638678113</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>143.4793244103712</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.4765883651609</v>
       </c>
       <c r="H46" t="n">
-        <v>144.1888869238709</v>
+        <v>141.5171503090135</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.4301700907009</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.7063664513136</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>218.6828191665979</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>461.6459453003291</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="C11" t="n">
-        <v>461.6459453003291</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="D11" t="n">
-        <v>461.6459453003291</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="E11" t="n">
-        <v>461.6459453003291</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="F11" t="n">
-        <v>338.5230850396139</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4002247788987</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="H11" t="n">
-        <v>92.27736451818352</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="I11" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J11" t="n">
-        <v>13.67191254441036</v>
+        <v>13.67191254441025</v>
       </c>
       <c r="K11" t="n">
-        <v>52.52788553388334</v>
+        <v>52.5278855338832</v>
       </c>
       <c r="L11" t="n">
         <v>124.7183011151472</v>
       </c>
       <c r="M11" t="n">
-        <v>225.6291823919092</v>
+        <v>225.6291823919094</v>
       </c>
       <c r="N11" t="n">
-        <v>331.171882673049</v>
+        <v>331.1718826730493</v>
       </c>
       <c r="O11" t="n">
-        <v>422.1649418990631</v>
+        <v>422.1649418990632</v>
       </c>
       <c r="P11" t="n">
-        <v>477.3997621913175</v>
+        <v>477.3997621913177</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="R11" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S11" t="n">
-        <v>487.566526632432</v>
+        <v>364.443666371717</v>
       </c>
       <c r="T11" t="n">
-        <v>487.566526632432</v>
+        <v>364.443666371717</v>
       </c>
       <c r="U11" t="n">
-        <v>487.566526632432</v>
+        <v>364.443666371717</v>
       </c>
       <c r="V11" t="n">
-        <v>487.566526632432</v>
+        <v>364.443666371717</v>
       </c>
       <c r="W11" t="n">
-        <v>487.566526632432</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="X11" t="n">
-        <v>487.566526632432</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="Y11" t="n">
-        <v>461.6459453003291</v>
+        <v>241.3208061110018</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>241.3208061110017</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="C12" t="n">
-        <v>118.1979458502865</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="D12" t="n">
-        <v>32.4703181446355</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="E12" t="n">
-        <v>32.4703181446355</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F12" t="n">
-        <v>32.4703181446355</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G12" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="H12" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="I12" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J12" t="n">
-        <v>9.751330532648737</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="K12" t="n">
-        <v>43.63722270065749</v>
+        <v>43.63722270065742</v>
       </c>
       <c r="L12" t="n">
         <v>119.3106382502223</v>
@@ -5135,37 +5135,37 @@
         <v>333.1250381905293</v>
       </c>
       <c r="O12" t="n">
-        <v>421.9866026009628</v>
+        <v>421.986602600963</v>
       </c>
       <c r="P12" t="n">
-        <v>480.7393491561093</v>
+        <v>480.7393491561095</v>
       </c>
       <c r="Q12" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="R12" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S12" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="T12" t="n">
-        <v>487.566526632432</v>
+        <v>364.443666371717</v>
       </c>
       <c r="U12" t="n">
-        <v>487.566526632432</v>
+        <v>364.443666371717</v>
       </c>
       <c r="V12" t="n">
-        <v>487.566526632432</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="W12" t="n">
-        <v>487.566526632432</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="X12" t="n">
-        <v>487.566526632432</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="Y12" t="n">
-        <v>364.4436663717169</v>
+        <v>241.3208061110018</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8741907933638</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="C13" t="n">
-        <v>9.751330532648641</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="D13" t="n">
-        <v>9.751330532648641</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="E13" t="n">
-        <v>9.751330532648641</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="F13" t="n">
-        <v>9.751330532648641</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="G13" t="n">
-        <v>9.751330532648641</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="H13" t="n">
-        <v>9.751330532648641</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="I13" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J13" t="n">
-        <v>9.751330532648641</v>
+        <v>24.97459687068101</v>
       </c>
       <c r="K13" t="n">
-        <v>9.751330532648641</v>
+        <v>145.647312212208</v>
       </c>
       <c r="L13" t="n">
-        <v>130.4240458741756</v>
+        <v>153.4717675450555</v>
       </c>
       <c r="M13" t="n">
-        <v>251.0967612157025</v>
+        <v>230.9925492119118</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7694765572294</v>
+        <v>246.2210959493783</v>
       </c>
       <c r="O13" t="n">
-        <v>430.8503288087855</v>
+        <v>366.8938112909053</v>
       </c>
       <c r="P13" t="n">
-        <v>430.8503288087855</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="R13" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S13" t="n">
-        <v>364.4436663717169</v>
+        <v>364.443666371717</v>
       </c>
       <c r="T13" t="n">
-        <v>241.3208061110017</v>
+        <v>364.443666371717</v>
       </c>
       <c r="U13" t="n">
-        <v>132.8741907933638</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="V13" t="n">
-        <v>132.8741907933638</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="W13" t="n">
-        <v>132.8741907933638</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="X13" t="n">
-        <v>132.8741907933638</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="Y13" t="n">
-        <v>132.8741907933638</v>
+        <v>123.3173560454146</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>118.1979458502865</v>
+        <v>338.5230850396141</v>
       </c>
       <c r="C14" t="n">
-        <v>118.1979458502865</v>
+        <v>338.5230850396141</v>
       </c>
       <c r="D14" t="n">
-        <v>118.1979458502865</v>
+        <v>338.5230850396141</v>
       </c>
       <c r="E14" t="n">
-        <v>118.1979458502865</v>
+        <v>215.4002247788988</v>
       </c>
       <c r="F14" t="n">
-        <v>118.1979458502865</v>
+        <v>215.4002247788988</v>
       </c>
       <c r="G14" t="n">
-        <v>118.1979458502865</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="H14" t="n">
-        <v>9.751330532648641</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="J14" t="n">
         <v>13.67191254441036</v>
       </c>
       <c r="K14" t="n">
-        <v>52.52788553388325</v>
+        <v>52.52788553388334</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151471</v>
+        <v>124.7183011151473</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919092</v>
+        <v>225.6291823919095</v>
       </c>
       <c r="N14" t="n">
-        <v>331.171882673049</v>
+        <v>331.1718826730494</v>
       </c>
       <c r="O14" t="n">
-        <v>422.164941899063</v>
+        <v>422.1649418990634</v>
       </c>
       <c r="P14" t="n">
-        <v>477.3997621913175</v>
+        <v>477.3997621913179</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324325</v>
       </c>
       <c r="R14" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324325</v>
       </c>
       <c r="S14" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="T14" t="n">
-        <v>241.3208061110017</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="U14" t="n">
-        <v>118.1979458502865</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="V14" t="n">
-        <v>118.1979458502865</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="W14" t="n">
-        <v>118.1979458502865</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="X14" t="n">
-        <v>118.1979458502865</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.1979458502865</v>
+        <v>338.5230850396141</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
       <c r="C15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
       <c r="D15" t="n">
-        <v>364.4436663717169</v>
+        <v>252.1594399656076</v>
       </c>
       <c r="E15" t="n">
-        <v>241.3208061110017</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F15" t="n">
-        <v>118.1979458502865</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G15" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="H15" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="I15" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065738</v>
+        <v>43.63722270065743</v>
       </c>
       <c r="L15" t="n">
-        <v>119.3106382502222</v>
+        <v>119.3106382502223</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241161</v>
+        <v>220.199909224116</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905294</v>
+        <v>333.1250381905293</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009629</v>
+        <v>421.9866026009628</v>
       </c>
       <c r="P15" t="n">
         <v>480.7393491561093</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324321</v>
       </c>
       <c r="R15" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324325</v>
       </c>
       <c r="S15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
       <c r="T15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
       <c r="U15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
       <c r="V15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
       <c r="W15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
       <c r="X15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.566526632432</v>
+        <v>375.2823002263229</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="C16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="D16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="E16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="F16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="G16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="H16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="I16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
       <c r="J16" t="n">
-        <v>9.751330532648641</v>
+        <v>24.97459687068102</v>
       </c>
       <c r="K16" t="n">
-        <v>9.751330532648641</v>
+        <v>145.647312212208</v>
       </c>
       <c r="L16" t="n">
-        <v>130.4240458741756</v>
+        <v>173.413831460953</v>
       </c>
       <c r="M16" t="n">
-        <v>251.0967612157025</v>
+        <v>294.08654680248</v>
       </c>
       <c r="N16" t="n">
-        <v>266.325307953169</v>
+        <v>309.3150935399466</v>
       </c>
       <c r="O16" t="n">
-        <v>386.9980232946959</v>
+        <v>310.1776134672589</v>
       </c>
       <c r="P16" t="n">
-        <v>430.8503288087855</v>
+        <v>430.8503288087859</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324325</v>
       </c>
       <c r="R16" t="n">
-        <v>392.863682869263</v>
+        <v>487.5665266324325</v>
       </c>
       <c r="S16" t="n">
-        <v>269.7408226085478</v>
+        <v>487.5665266324325</v>
       </c>
       <c r="T16" t="n">
-        <v>146.6179623478326</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="U16" t="n">
-        <v>132.8741907933638</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="V16" t="n">
-        <v>9.751330532648641</v>
+        <v>364.4436663717172</v>
       </c>
       <c r="W16" t="n">
-        <v>9.751330532648641</v>
+        <v>241.3208061110019</v>
       </c>
       <c r="X16" t="n">
-        <v>9.751330532648641</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.751330532648641</v>
+        <v>9.75133053264865</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.27736451818353</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="C17" t="n">
-        <v>92.27736451818353</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="D17" t="n">
-        <v>92.27736451818353</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="E17" t="n">
-        <v>92.27736451818353</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="F17" t="n">
-        <v>92.27736451818353</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="G17" t="n">
-        <v>92.27736451818353</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="H17" t="n">
-        <v>92.27736451818353</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254441025</v>
+        <v>13.6719125444103</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388314</v>
+        <v>52.52788553388328</v>
       </c>
       <c r="L17" t="n">
-        <v>124.718301115147</v>
+        <v>124.7183011151472</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919091</v>
+        <v>225.6291823919093</v>
       </c>
       <c r="N17" t="n">
-        <v>331.1718826730488</v>
+        <v>331.1718826730491</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990628</v>
+        <v>422.1649418990632</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913172</v>
+        <v>477.3997621913177</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="R17" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S17" t="n">
-        <v>364.4436663717167</v>
+        <v>364.443666371717</v>
       </c>
       <c r="T17" t="n">
-        <v>241.3208061110016</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="U17" t="n">
-        <v>241.3208061110016</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="V17" t="n">
-        <v>241.3208061110016</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="W17" t="n">
-        <v>241.3208061110016</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="X17" t="n">
-        <v>241.3208061110016</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="Y17" t="n">
-        <v>118.1979458502864</v>
+        <v>132.8741907933639</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.751330532648636</v>
+        <v>120.7774039284235</v>
       </c>
       <c r="C18" t="n">
-        <v>9.751330532648636</v>
+        <v>120.7774039284235</v>
       </c>
       <c r="D18" t="n">
-        <v>9.751330532648636</v>
+        <v>120.7774039284235</v>
       </c>
       <c r="E18" t="n">
-        <v>9.751330532648636</v>
+        <v>120.7774039284235</v>
       </c>
       <c r="F18" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="G18" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="H18" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648723</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065746</v>
+        <v>43.63722270065742</v>
       </c>
       <c r="L18" t="n">
         <v>119.3106382502223</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241159</v>
+        <v>220.199909224116</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905292</v>
+        <v>333.1250381905293</v>
       </c>
       <c r="O18" t="n">
-        <v>421.9866026009627</v>
+        <v>421.9866026009628</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561091</v>
+        <v>480.7393491561093</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324321</v>
       </c>
       <c r="R18" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S18" t="n">
-        <v>367.0231244498535</v>
+        <v>367.023124449854</v>
       </c>
       <c r="T18" t="n">
-        <v>243.9002641891384</v>
+        <v>367.023124449854</v>
       </c>
       <c r="U18" t="n">
-        <v>132.8741907933637</v>
+        <v>243.9002641891387</v>
       </c>
       <c r="V18" t="n">
-        <v>132.8741907933637</v>
+        <v>243.9002641891387</v>
       </c>
       <c r="W18" t="n">
-        <v>9.751330532648636</v>
+        <v>243.9002641891387</v>
       </c>
       <c r="X18" t="n">
-        <v>9.751330532648636</v>
+        <v>120.7774039284235</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.751330532648636</v>
+        <v>120.7774039284235</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.6179623478325</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="C19" t="n">
-        <v>23.49510208711736</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="D19" t="n">
-        <v>23.49510208711736</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="E19" t="n">
-        <v>23.49510208711736</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648636</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J19" t="n">
-        <v>9.751330532648636</v>
+        <v>24.97459687068101</v>
       </c>
       <c r="K19" t="n">
-        <v>9.751330532648636</v>
+        <v>145.647312212208</v>
       </c>
       <c r="L19" t="n">
-        <v>130.4240458741755</v>
+        <v>173.4138314609529</v>
       </c>
       <c r="M19" t="n">
-        <v>251.0967612157024</v>
+        <v>294.0865468024799</v>
       </c>
       <c r="N19" t="n">
-        <v>371.7694765572293</v>
+        <v>309.3150935399465</v>
       </c>
       <c r="O19" t="n">
-        <v>430.8503288087853</v>
+        <v>310.1776134672588</v>
       </c>
       <c r="P19" t="n">
-        <v>430.8503288087853</v>
+        <v>430.8503288087857</v>
       </c>
       <c r="Q19" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="R19" t="n">
-        <v>392.8636828692627</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S19" t="n">
-        <v>392.8636828692627</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="T19" t="n">
-        <v>392.8636828692627</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="U19" t="n">
-        <v>392.8636828692627</v>
+        <v>364.443666371717</v>
       </c>
       <c r="V19" t="n">
-        <v>392.8636828692627</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="W19" t="n">
-        <v>392.8636828692627</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="X19" t="n">
-        <v>269.7408226085476</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.6179623478325</v>
+        <v>132.8741907933639</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>215.4002247788986</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="C20" t="n">
-        <v>215.4002247788986</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="D20" t="n">
-        <v>215.4002247788986</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="E20" t="n">
-        <v>215.4002247788986</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="F20" t="n">
-        <v>215.4002247788986</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="G20" t="n">
-        <v>215.4002247788986</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="H20" t="n">
         <v>92.27736451818353</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254441024</v>
+        <v>13.6719125444103</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388313</v>
+        <v>52.52788553388328</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151467</v>
+        <v>124.7183011151472</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919089</v>
+        <v>225.6291823919093</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730487</v>
+        <v>331.1718826730491</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990627</v>
+        <v>422.1649418990632</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913171</v>
+        <v>477.3997621913177</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324316</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="R20" t="n">
-        <v>487.5665266324316</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S20" t="n">
-        <v>487.5665266324316</v>
+        <v>364.443666371717</v>
       </c>
       <c r="T20" t="n">
-        <v>487.5665266324316</v>
+        <v>241.3208061110018</v>
       </c>
       <c r="U20" t="n">
-        <v>487.5665266324316</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="V20" t="n">
-        <v>487.5665266324316</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="W20" t="n">
-        <v>364.4436663717165</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="X20" t="n">
-        <v>241.3208061110014</v>
+        <v>118.1979458502866</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.3208061110014</v>
+        <v>118.1979458502866</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>255.9970510540787</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="C21" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="D21" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="E21" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="F21" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="G21" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="H21" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065723</v>
+        <v>43.63722270065756</v>
       </c>
       <c r="L21" t="n">
-        <v>119.310638250222</v>
+        <v>119.3106382502224</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241157</v>
+        <v>220.1999092241161</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905289</v>
+        <v>333.1250381905294</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009624</v>
+        <v>421.986602600963</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561089</v>
+        <v>480.7393491561095</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324316</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324316</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S21" t="n">
-        <v>367.0231244498533</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="T21" t="n">
-        <v>367.0231244498533</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="U21" t="n">
-        <v>367.0231244498533</v>
+        <v>364.443666371717</v>
       </c>
       <c r="V21" t="n">
-        <v>367.0231244498533</v>
+        <v>255.9970510540791</v>
       </c>
       <c r="W21" t="n">
-        <v>255.9970510540787</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="X21" t="n">
-        <v>255.9970510540787</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="Y21" t="n">
-        <v>255.9970510540787</v>
+        <v>9.751330532648646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="C22" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="D22" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="E22" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="F22" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="G22" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648632</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="J22" t="n">
-        <v>24.97459687068098</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="K22" t="n">
-        <v>24.97459687068098</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="L22" t="n">
-        <v>32.79905220352849</v>
+        <v>130.4240458741756</v>
       </c>
       <c r="M22" t="n">
-        <v>153.4717675450553</v>
+        <v>246.2210959493783</v>
       </c>
       <c r="N22" t="n">
-        <v>274.1444828865821</v>
+        <v>366.8938112909053</v>
       </c>
       <c r="O22" t="n">
-        <v>394.8171982281089</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="P22" t="n">
-        <v>430.8503288087851</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.5665266324316</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="R22" t="n">
-        <v>392.8636828692625</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="S22" t="n">
-        <v>392.8636828692625</v>
+        <v>487.5665266324323</v>
       </c>
       <c r="T22" t="n">
-        <v>269.7408226085474</v>
+        <v>379.1199113147944</v>
       </c>
       <c r="U22" t="n">
-        <v>146.6179623478324</v>
+        <v>255.9970510540791</v>
       </c>
       <c r="V22" t="n">
-        <v>146.6179623478324</v>
+        <v>132.8741907933639</v>
       </c>
       <c r="W22" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="X22" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648646</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>811.9313061003861</v>
+        <v>1265.239045287827</v>
       </c>
       <c r="C23" t="n">
-        <v>418.7558046033167</v>
+        <v>872.0635437907572</v>
       </c>
       <c r="D23" t="n">
-        <v>33.31467581998446</v>
+        <v>872.0635437907572</v>
       </c>
       <c r="E23" t="n">
-        <v>33.31467581998446</v>
+        <v>469.4800189073017</v>
       </c>
       <c r="F23" t="n">
-        <v>33.31467581998446</v>
+        <v>52.58558043727948</v>
       </c>
       <c r="G23" t="n">
-        <v>33.31467581998446</v>
+        <v>52.58558043727948</v>
       </c>
       <c r="H23" t="n">
-        <v>33.31467581998446</v>
+        <v>52.58558043727948</v>
       </c>
       <c r="I23" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J23" t="n">
         <v>121.9122768049704</v>
       </c>
       <c r="K23" t="n">
-        <v>287.6771509825641</v>
+        <v>287.6771509825639</v>
       </c>
       <c r="L23" t="n">
-        <v>517.3092805403762</v>
+        <v>517.3092805403763</v>
       </c>
       <c r="M23" t="n">
         <v>793.4044043866272</v>
@@ -6010,31 +6010,31 @@
         <v>1534.760026005067</v>
       </c>
       <c r="Q23" t="n">
-        <v>1652.665230572189</v>
+        <v>1652.66523057219</v>
       </c>
       <c r="R23" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S23" t="n">
-        <v>1608.916760891182</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="T23" t="n">
-        <v>1608.916760891182</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="U23" t="n">
-        <v>1608.916760891182</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="V23" t="n">
-        <v>1608.916760891182</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="W23" t="n">
-        <v>1608.916760891182</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="X23" t="n">
-        <v>1608.916760891182</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="Y23" t="n">
-        <v>1212.426051811783</v>
+        <v>1665.733790999224</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>482.6825615726962</v>
+        <v>311.0161086409607</v>
       </c>
       <c r="C24" t="n">
-        <v>332.0283311327884</v>
+        <v>160.3618782010529</v>
       </c>
       <c r="D24" t="n">
-        <v>332.0283311327884</v>
+        <v>160.3618782010529</v>
       </c>
       <c r="E24" t="n">
-        <v>195.5818402436761</v>
+        <v>157.7464819368527</v>
       </c>
       <c r="F24" t="n">
-        <v>195.5818402436761</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="G24" t="n">
-        <v>76.84123648552206</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H24" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I24" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J24" t="n">
-        <v>73.85119949026736</v>
+        <v>268.5861944699948</v>
       </c>
       <c r="K24" t="n">
-        <v>193.9352110764772</v>
+        <v>388.6702060562046</v>
       </c>
       <c r="L24" t="n">
-        <v>565.7994387596729</v>
+        <v>580.2476306721801</v>
       </c>
       <c r="M24" t="n">
-        <v>801.943221475139</v>
+        <v>816.3914133876463</v>
       </c>
       <c r="N24" t="n">
-        <v>1214.212334747447</v>
+        <v>1068.150838559071</v>
       </c>
       <c r="O24" t="n">
-        <v>1430.080156704099</v>
+        <v>1284.018660515724</v>
       </c>
       <c r="P24" t="n">
-        <v>1590.766622009542</v>
+        <v>1444.705125821166</v>
       </c>
       <c r="Q24" t="n">
-        <v>1665.733790999223</v>
+        <v>1608.897835145042</v>
       </c>
       <c r="R24" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S24" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="T24" t="n">
-        <v>1665.733790999223</v>
+        <v>1494.067338067488</v>
       </c>
       <c r="U24" t="n">
-        <v>1455.757438083785</v>
+        <v>1284.090985152049</v>
       </c>
       <c r="V24" t="n">
-        <v>1233.217436454852</v>
+        <v>1061.550983523116</v>
       </c>
       <c r="W24" t="n">
-        <v>1003.100190588139</v>
+        <v>831.4337376564031</v>
       </c>
       <c r="X24" t="n">
-        <v>813.7931129381502</v>
+        <v>642.1266600064148</v>
       </c>
       <c r="Y24" t="n">
-        <v>634.4788960136575</v>
+        <v>462.812443081922</v>
       </c>
     </row>
     <row r="25">
@@ -6138,55 +6138,55 @@
         <v>445.942529959232</v>
       </c>
       <c r="G25" t="n">
-        <v>278.7944609035139</v>
+        <v>278.794460903514</v>
       </c>
       <c r="H25" t="n">
-        <v>133.1491205763716</v>
+        <v>133.1491205763717</v>
       </c>
       <c r="I25" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J25" t="n">
-        <v>80.1780184947354</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="K25" t="n">
-        <v>287.9513326892302</v>
+        <v>241.0879900144793</v>
       </c>
       <c r="L25" t="n">
-        <v>613.2366030814007</v>
+        <v>566.3732604066499</v>
       </c>
       <c r="M25" t="n">
-        <v>969.4463068341363</v>
+        <v>922.5829641593855</v>
       </c>
       <c r="N25" t="n">
-        <v>1098.835874218845</v>
+        <v>1271.650450368395</v>
       </c>
       <c r="O25" t="n">
-        <v>1414.755685855125</v>
+        <v>1529.069438591708</v>
       </c>
       <c r="P25" t="n">
-        <v>1665.733790999223</v>
+        <v>1571.5434073536</v>
       </c>
       <c r="Q25" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="R25" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S25" t="n">
-        <v>1500.867006831864</v>
+        <v>1482.192006704968</v>
       </c>
       <c r="T25" t="n">
-        <v>1269.873526609854</v>
+        <v>1482.192006704968</v>
       </c>
       <c r="U25" t="n">
-        <v>1269.873526609854</v>
+        <v>1482.192006704968</v>
       </c>
       <c r="V25" t="n">
-        <v>1269.873526609854</v>
+        <v>1482.192006704968</v>
       </c>
       <c r="W25" t="n">
-        <v>1269.873526609854</v>
+        <v>1482.192006704968</v>
       </c>
       <c r="X25" t="n">
         <v>1269.873526609854</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>821.3393294867722</v>
+        <v>1154.045433080099</v>
       </c>
       <c r="C26" t="n">
-        <v>821.3393294867722</v>
+        <v>760.8699315830299</v>
       </c>
       <c r="D26" t="n">
-        <v>435.89820070344</v>
+        <v>375.4288027996977</v>
       </c>
       <c r="E26" t="n">
-        <v>33.31467581998446</v>
+        <v>375.4288027996977</v>
       </c>
       <c r="F26" t="n">
-        <v>33.31467581998446</v>
+        <v>375.4288027996977</v>
       </c>
       <c r="G26" t="n">
-        <v>33.31467581998446</v>
+        <v>375.4288027996977</v>
       </c>
       <c r="H26" t="n">
-        <v>33.31467581998446</v>
+        <v>76.59661412308306</v>
       </c>
       <c r="I26" t="n">
         <v>33.31467581998446</v>
@@ -6232,7 +6232,7 @@
         <v>287.6771509825641</v>
       </c>
       <c r="L26" t="n">
-        <v>517.3092805403762</v>
+        <v>517.3092805403761</v>
       </c>
       <c r="M26" t="n">
         <v>793.4044043866272</v>
@@ -6256,22 +6256,22 @@
         <v>1665.733790999223</v>
       </c>
       <c r="T26" t="n">
-        <v>1665.733790999223</v>
+        <v>1453.026367842497</v>
       </c>
       <c r="U26" t="n">
-        <v>1665.733790999223</v>
+        <v>1197.470886556412</v>
       </c>
       <c r="V26" t="n">
-        <v>1665.733790999223</v>
+        <v>1197.470886556412</v>
       </c>
       <c r="W26" t="n">
-        <v>1618.324784277568</v>
+        <v>1197.470886556412</v>
       </c>
       <c r="X26" t="n">
-        <v>1618.324784277568</v>
+        <v>1197.470886556412</v>
       </c>
       <c r="Y26" t="n">
-        <v>1221.834075198169</v>
+        <v>1197.470886556412</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>769.2333592129132</v>
+        <v>352.0436705053735</v>
       </c>
       <c r="C27" t="n">
-        <v>618.5791287730054</v>
+        <v>352.0436705053735</v>
       </c>
       <c r="D27" t="n">
-        <v>488.4901613944858</v>
+        <v>352.0436705053735</v>
       </c>
       <c r="E27" t="n">
         <v>352.0436705053735</v>
@@ -6305,25 +6305,25 @@
         <v>33.31467581998446</v>
       </c>
       <c r="J27" t="n">
-        <v>73.85119949026736</v>
+        <v>268.5861944699948</v>
       </c>
       <c r="K27" t="n">
-        <v>477.8957463903988</v>
+        <v>388.6702060562046</v>
       </c>
       <c r="L27" t="n">
-        <v>669.4731710063743</v>
+        <v>580.2476306721801</v>
       </c>
       <c r="M27" t="n">
-        <v>905.6169537218404</v>
+        <v>816.3914133876463</v>
       </c>
       <c r="N27" t="n">
-        <v>1157.376378893265</v>
+        <v>1068.150838559071</v>
       </c>
       <c r="O27" t="n">
-        <v>1373.244200849918</v>
+        <v>1284.018660515724</v>
       </c>
       <c r="P27" t="n">
-        <v>1533.93066615536</v>
+        <v>1444.705125821166</v>
       </c>
       <c r="Q27" t="n">
         <v>1608.897835145041</v>
@@ -6332,25 +6332,25 @@
         <v>1665.733790999223</v>
       </c>
       <c r="S27" t="n">
-        <v>1665.733790999223</v>
+        <v>1555.306938503793</v>
       </c>
       <c r="T27" t="n">
-        <v>1494.067338067487</v>
+        <v>1383.640485572057</v>
       </c>
       <c r="U27" t="n">
-        <v>1284.090985152048</v>
+        <v>1173.664132656618</v>
       </c>
       <c r="V27" t="n">
-        <v>1284.090985152048</v>
+        <v>951.1241310276853</v>
       </c>
       <c r="W27" t="n">
-        <v>1284.090985152048</v>
+        <v>721.0068851609722</v>
       </c>
       <c r="X27" t="n">
-        <v>1100.343910578367</v>
+        <v>531.6998075109839</v>
       </c>
       <c r="Y27" t="n">
-        <v>921.0296936538746</v>
+        <v>352.3855905864911</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1084.665507918553</v>
+        <v>342.8187792121059</v>
       </c>
       <c r="C28" t="n">
-        <v>914.4603899845417</v>
+        <v>172.6136612780952</v>
       </c>
       <c r="D28" t="n">
-        <v>758.8272768870565</v>
+        <v>172.6136612780952</v>
       </c>
       <c r="E28" t="n">
-        <v>603.268464746259</v>
+        <v>172.6136612780952</v>
       </c>
       <c r="F28" t="n">
-        <v>445.942529959232</v>
+        <v>172.6136612780952</v>
       </c>
       <c r="G28" t="n">
-        <v>278.7944609035139</v>
+        <v>172.6136612780952</v>
       </c>
       <c r="H28" t="n">
-        <v>133.1491205763716</v>
+        <v>33.31467581998446</v>
       </c>
       <c r="I28" t="n">
         <v>33.31467581998446</v>
@@ -6387,19 +6387,19 @@
         <v>33.31467581998446</v>
       </c>
       <c r="K28" t="n">
-        <v>241.0879900144793</v>
+        <v>76.23291727179785</v>
       </c>
       <c r="L28" t="n">
-        <v>566.3732604066499</v>
+        <v>401.5181876639684</v>
       </c>
       <c r="M28" t="n">
-        <v>922.5829641593855</v>
+        <v>757.727891416704</v>
       </c>
       <c r="N28" t="n">
-        <v>1098.835874218845</v>
+        <v>1106.795377625713</v>
       </c>
       <c r="O28" t="n">
-        <v>1414.755685855125</v>
+        <v>1422.715189261993</v>
       </c>
       <c r="P28" t="n">
         <v>1665.733790999223</v>
@@ -6411,25 +6411,25 @@
         <v>1665.733790999223</v>
       </c>
       <c r="S28" t="n">
-        <v>1492.98558779321</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="T28" t="n">
-        <v>1492.98558779321</v>
+        <v>1251.198526482957</v>
       </c>
       <c r="U28" t="n">
-        <v>1492.98558779321</v>
+        <v>1251.198526482957</v>
       </c>
       <c r="V28" t="n">
-        <v>1492.98558779321</v>
+        <v>985.2191813037808</v>
       </c>
       <c r="W28" t="n">
-        <v>1492.98558779321</v>
+        <v>985.2191813037808</v>
       </c>
       <c r="X28" t="n">
-        <v>1492.98558779321</v>
+        <v>751.1388590867639</v>
       </c>
       <c r="Y28" t="n">
-        <v>1269.873526609854</v>
+        <v>528.0267979034072</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>435.89820070344</v>
+        <v>927.1362726233426</v>
       </c>
       <c r="C29" t="n">
-        <v>435.89820070344</v>
+        <v>927.1362726233426</v>
       </c>
       <c r="D29" t="n">
-        <v>435.89820070344</v>
+        <v>927.1362726233426</v>
       </c>
       <c r="E29" t="n">
-        <v>33.31467581998447</v>
+        <v>927.1362726233426</v>
       </c>
       <c r="F29" t="n">
-        <v>33.31467581998447</v>
+        <v>510.2418341533204</v>
       </c>
       <c r="G29" t="n">
-        <v>33.31467581998447</v>
+        <v>99.54468213278159</v>
       </c>
       <c r="H29" t="n">
         <v>33.31467581998447</v>
@@ -6469,10 +6469,10 @@
         <v>287.6771509825641</v>
       </c>
       <c r="L29" t="n">
-        <v>517.3092805403762</v>
+        <v>517.309280540376</v>
       </c>
       <c r="M29" t="n">
-        <v>793.4044043866271</v>
+        <v>793.404404386627</v>
       </c>
       <c r="N29" t="n">
         <v>1076.966011431517</v>
@@ -6496,19 +6496,19 @@
         <v>1665.733790999223</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.336260561179</v>
+        <v>1665.733790999223</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.336260561179</v>
+        <v>1323.626981702741</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.336260561179</v>
+        <v>1323.626981702741</v>
       </c>
       <c r="X29" t="n">
-        <v>1232.883655494236</v>
+        <v>1323.626981702741</v>
       </c>
       <c r="Y29" t="n">
-        <v>836.3929464148368</v>
+        <v>927.1362726233426</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>773.2003007696196</v>
+        <v>320.4153971490045</v>
       </c>
       <c r="C30" t="n">
-        <v>622.5460703297118</v>
+        <v>169.7611667090968</v>
       </c>
       <c r="D30" t="n">
-        <v>492.4571029511922</v>
+        <v>169.7611667090968</v>
       </c>
       <c r="E30" t="n">
-        <v>356.0106120620799</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="F30" t="n">
-        <v>231.5788059452117</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="G30" t="n">
-        <v>112.8382021870576</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H30" t="n">
-        <v>37.28161737669083</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I30" t="n">
         <v>33.31467581998447</v>
       </c>
       <c r="J30" t="n">
-        <v>268.5861944699948</v>
+        <v>73.85119949026738</v>
       </c>
       <c r="K30" t="n">
-        <v>388.6702060562046</v>
+        <v>193.9352110764772</v>
       </c>
       <c r="L30" t="n">
-        <v>580.2476306721801</v>
+        <v>385.5126356924527</v>
       </c>
       <c r="M30" t="n">
-        <v>816.3914133876463</v>
+        <v>621.6564184079189</v>
       </c>
       <c r="N30" t="n">
-        <v>1068.150838559071</v>
+        <v>873.4158435793436</v>
       </c>
       <c r="O30" t="n">
-        <v>1284.018660515724</v>
+        <v>1089.283665535996</v>
       </c>
       <c r="P30" t="n">
-        <v>1444.705125821166</v>
+        <v>1266.323258830296</v>
       </c>
       <c r="Q30" t="n">
-        <v>1608.897835145042</v>
+        <v>1665.733790999223</v>
       </c>
       <c r="R30" t="n">
         <v>1665.733790999223</v>
       </c>
       <c r="S30" t="n">
-        <v>1556.96809963072</v>
+        <v>1665.733790999223</v>
       </c>
       <c r="T30" t="n">
-        <v>1556.96809963072</v>
+        <v>1503.466626575531</v>
       </c>
       <c r="U30" t="n">
-        <v>1556.96809963072</v>
+        <v>1293.490273660093</v>
       </c>
       <c r="V30" t="n">
-        <v>1334.428098001787</v>
+        <v>1070.95027203116</v>
       </c>
       <c r="W30" t="n">
-        <v>1104.310852135074</v>
+        <v>840.8330261644469</v>
       </c>
       <c r="X30" t="n">
-        <v>1104.310852135074</v>
+        <v>651.5259485144586</v>
       </c>
       <c r="Y30" t="n">
-        <v>924.996635210581</v>
+        <v>472.2117315899659</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.2316603508513</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="C31" t="n">
-        <v>659.2316603508513</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="D31" t="n">
-        <v>658.9928321306694</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="E31" t="n">
-        <v>503.4340199898719</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="F31" t="n">
-        <v>346.1080852028448</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="G31" t="n">
-        <v>178.9600161471268</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H31" t="n">
         <v>33.31467581998447</v>
@@ -6621,22 +6621,22 @@
         <v>33.31467581998447</v>
       </c>
       <c r="J31" t="n">
-        <v>80.1780184947354</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="K31" t="n">
-        <v>287.9513326892302</v>
+        <v>76.23291727179785</v>
       </c>
       <c r="L31" t="n">
-        <v>393.5586842571012</v>
+        <v>401.5181876639684</v>
       </c>
       <c r="M31" t="n">
-        <v>749.7683880098367</v>
+        <v>757.727891416704</v>
       </c>
       <c r="N31" t="n">
-        <v>1098.835874218846</v>
+        <v>1106.795377625713</v>
       </c>
       <c r="O31" t="n">
-        <v>1414.755685855126</v>
+        <v>1422.715189261993</v>
       </c>
       <c r="P31" t="n">
         <v>1665.733790999223</v>
@@ -6648,25 +6648,25 @@
         <v>1665.733790999223</v>
       </c>
       <c r="S31" t="n">
-        <v>1665.733790999223</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="T31" t="n">
-        <v>1665.733790999223</v>
+        <v>1251.198526482957</v>
       </c>
       <c r="U31" t="n">
-        <v>1665.733790999223</v>
+        <v>965.8200611709397</v>
       </c>
       <c r="V31" t="n">
-        <v>1399.754445820047</v>
+        <v>699.8407159917639</v>
       </c>
       <c r="W31" t="n">
-        <v>1116.424043751225</v>
+        <v>490.507059220358</v>
       </c>
       <c r="X31" t="n">
-        <v>882.3437215342079</v>
+        <v>256.4267370033411</v>
       </c>
       <c r="Y31" t="n">
-        <v>659.2316603508513</v>
+        <v>33.31467581998447</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>667.5767547052599</v>
+        <v>1265.239045287827</v>
       </c>
       <c r="C32" t="n">
-        <v>667.5767547052599</v>
+        <v>1265.239045287827</v>
       </c>
       <c r="D32" t="n">
-        <v>667.5767547052599</v>
+        <v>1265.239045287827</v>
       </c>
       <c r="E32" t="n">
-        <v>667.5767547052599</v>
+        <v>862.6555204043711</v>
       </c>
       <c r="F32" t="n">
-        <v>667.5767547052599</v>
+        <v>445.7610819343489</v>
       </c>
       <c r="G32" t="n">
-        <v>332.1468644965991</v>
+        <v>35.06392991381011</v>
       </c>
       <c r="H32" t="n">
-        <v>33.31467581998447</v>
+        <v>35.06392991381011</v>
       </c>
       <c r="I32" t="n">
         <v>33.31467581998447</v>
@@ -6703,13 +6703,13 @@
         <v>121.9122768049704</v>
       </c>
       <c r="K32" t="n">
-        <v>287.6771509825644</v>
+        <v>287.6771509825639</v>
       </c>
       <c r="L32" t="n">
-        <v>517.3092805403769</v>
+        <v>517.3092805403763</v>
       </c>
       <c r="M32" t="n">
-        <v>793.4044043866277</v>
+        <v>793.4044043866272</v>
       </c>
       <c r="N32" t="n">
         <v>1076.966011431517</v>
@@ -6724,28 +6724,28 @@
         <v>1652.66523057219</v>
       </c>
       <c r="R32" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S32" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="T32" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="U32" t="n">
-        <v>1410.178309713139</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="V32" t="n">
-        <v>1068.071500416657</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="W32" t="n">
-        <v>1068.071500416657</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="X32" t="n">
-        <v>1068.071500416657</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="Y32" t="n">
-        <v>1068.071500416657</v>
+        <v>1665.733790999224</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>692.658914488135</v>
+        <v>311.0161086409607</v>
       </c>
       <c r="C33" t="n">
-        <v>542.0046840482272</v>
+        <v>160.3618782010529</v>
       </c>
       <c r="D33" t="n">
-        <v>411.9157166697075</v>
+        <v>160.3618782010529</v>
       </c>
       <c r="E33" t="n">
-        <v>275.4692257805953</v>
+        <v>112.8382021870576</v>
       </c>
       <c r="F33" t="n">
-        <v>151.0374196637271</v>
+        <v>112.8382021870576</v>
       </c>
       <c r="G33" t="n">
-        <v>33.31467581998447</v>
+        <v>112.8382021870576</v>
       </c>
       <c r="H33" t="n">
-        <v>33.31467581998447</v>
+        <v>37.28161737669084</v>
       </c>
       <c r="I33" t="n">
         <v>33.31467581998447</v>
       </c>
       <c r="J33" t="n">
-        <v>268.5861944699948</v>
+        <v>90.20432747912584</v>
       </c>
       <c r="K33" t="n">
-        <v>388.6702060562046</v>
+        <v>210.2883390653356</v>
       </c>
       <c r="L33" t="n">
-        <v>580.2476306721801</v>
+        <v>401.8657636813111</v>
       </c>
       <c r="M33" t="n">
-        <v>816.3914133876463</v>
+        <v>638.0095463967773</v>
       </c>
       <c r="N33" t="n">
-        <v>1068.150838559071</v>
+        <v>889.768971568202</v>
       </c>
       <c r="O33" t="n">
-        <v>1284.018660515724</v>
+        <v>1105.636793524855</v>
       </c>
       <c r="P33" t="n">
-        <v>1444.705125821166</v>
+        <v>1266.323258830297</v>
       </c>
       <c r="Q33" t="n">
-        <v>1608.897835145042</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="R33" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S33" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="T33" t="n">
-        <v>1665.733790999223</v>
+        <v>1494.067338067488</v>
       </c>
       <c r="U33" t="n">
-        <v>1665.733790999223</v>
+        <v>1284.090985152049</v>
       </c>
       <c r="V33" t="n">
-        <v>1443.19378937029</v>
+        <v>1061.550983523116</v>
       </c>
       <c r="W33" t="n">
-        <v>1213.076543503577</v>
+        <v>831.4337376564031</v>
       </c>
       <c r="X33" t="n">
-        <v>1023.769465853589</v>
+        <v>642.1266600064148</v>
       </c>
       <c r="Y33" t="n">
-        <v>844.4552489290963</v>
+        <v>462.812443081922</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>203.5197937539953</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="C34" t="n">
         <v>33.31467581998447</v>
@@ -6861,49 +6861,49 @@
         <v>33.31467581998447</v>
       </c>
       <c r="K34" t="n">
-        <v>241.0879900144793</v>
+        <v>76.23291727179786</v>
       </c>
       <c r="L34" t="n">
-        <v>315.4473313458732</v>
+        <v>401.5181876639685</v>
       </c>
       <c r="M34" t="n">
-        <v>671.6570350986087</v>
+        <v>757.7278914167041</v>
       </c>
       <c r="N34" t="n">
-        <v>1020.724521307618</v>
+        <v>1106.795377625713</v>
       </c>
       <c r="O34" t="n">
-        <v>1336.644332943898</v>
+        <v>1422.715189261993</v>
       </c>
       <c r="P34" t="n">
-        <v>1571.5434073536</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="Q34" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="R34" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S34" t="n">
-        <v>1665.733790999223</v>
+        <v>1556.188752002384</v>
       </c>
       <c r="T34" t="n">
-        <v>1665.733790999223</v>
+        <v>1325.195271780374</v>
       </c>
       <c r="U34" t="n">
-        <v>1395.229943093668</v>
+        <v>1039.816806468356</v>
       </c>
       <c r="V34" t="n">
-        <v>1129.250597914493</v>
+        <v>773.8374612891805</v>
       </c>
       <c r="W34" t="n">
-        <v>845.9201958456702</v>
+        <v>490.5070592203581</v>
       </c>
       <c r="X34" t="n">
-        <v>611.8398736286532</v>
+        <v>256.4267370033411</v>
       </c>
       <c r="Y34" t="n">
-        <v>388.7278124452965</v>
+        <v>33.31467581998447</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.31467581998446</v>
+        <v>716.1432360273509</v>
       </c>
       <c r="C35" t="n">
-        <v>33.31467581998446</v>
+        <v>322.9677345302815</v>
       </c>
       <c r="D35" t="n">
-        <v>33.31467581998446</v>
+        <v>322.9677345302815</v>
       </c>
       <c r="E35" t="n">
-        <v>33.31467581998446</v>
+        <v>322.9677345302815</v>
       </c>
       <c r="F35" t="n">
-        <v>33.31467581998446</v>
+        <v>322.9677345302815</v>
       </c>
       <c r="G35" t="n">
-        <v>33.31467581998446</v>
+        <v>322.9677345302815</v>
       </c>
       <c r="H35" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I35" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J35" t="n">
         <v>121.9122768049704</v>
@@ -6943,10 +6943,10 @@
         <v>287.6771509825641</v>
       </c>
       <c r="L35" t="n">
-        <v>517.3092805403762</v>
+        <v>517.309280540376</v>
       </c>
       <c r="M35" t="n">
-        <v>793.4044043866272</v>
+        <v>793.404404386627</v>
       </c>
       <c r="N35" t="n">
         <v>1076.966011431517</v>
@@ -6976,13 +6976,13 @@
         <v>1087.142271059063</v>
       </c>
       <c r="W35" t="n">
-        <v>716.1432360273507</v>
+        <v>716.1432360273509</v>
       </c>
       <c r="X35" t="n">
-        <v>326.6906309604075</v>
+        <v>716.1432360273509</v>
       </c>
       <c r="Y35" t="n">
-        <v>33.31467581998446</v>
+        <v>716.1432360273509</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>382.2330363851195</v>
+        <v>551.5699260017589</v>
       </c>
       <c r="C36" t="n">
-        <v>231.5788059452117</v>
+        <v>400.9156955618511</v>
       </c>
       <c r="D36" t="n">
-        <v>231.5788059452117</v>
+        <v>400.9156955618511</v>
       </c>
       <c r="E36" t="n">
-        <v>231.5788059452117</v>
+        <v>264.4692046727388</v>
       </c>
       <c r="F36" t="n">
-        <v>231.5788059452117</v>
+        <v>156.0222211348449</v>
       </c>
       <c r="G36" t="n">
-        <v>112.8382021870576</v>
+        <v>37.28161737669083</v>
       </c>
       <c r="H36" t="n">
-        <v>37.28161737669082</v>
+        <v>37.28161737669083</v>
       </c>
       <c r="I36" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J36" t="n">
         <v>268.5861944699948</v>
       </c>
       <c r="K36" t="n">
-        <v>534.7317022445803</v>
+        <v>477.895746390399</v>
       </c>
       <c r="L36" t="n">
-        <v>726.3091268605558</v>
+        <v>669.4731710063745</v>
       </c>
       <c r="M36" t="n">
-        <v>962.452909576022</v>
+        <v>905.6169537218407</v>
       </c>
       <c r="N36" t="n">
-        <v>1214.212334747447</v>
+        <v>1157.376378893265</v>
       </c>
       <c r="O36" t="n">
-        <v>1430.080156704099</v>
+        <v>1373.244200849918</v>
       </c>
       <c r="P36" t="n">
-        <v>1590.766622009542</v>
+        <v>1533.93066615536</v>
       </c>
       <c r="Q36" t="n">
-        <v>1665.733790999223</v>
+        <v>1608.897835145042</v>
       </c>
       <c r="R36" t="n">
         <v>1665.733790999223</v>
@@ -7046,22 +7046,22 @@
         <v>1555.306938503793</v>
       </c>
       <c r="T36" t="n">
-        <v>1383.640485572057</v>
+        <v>1555.306938503793</v>
       </c>
       <c r="U36" t="n">
-        <v>1173.664132656618</v>
+        <v>1345.330585588355</v>
       </c>
       <c r="V36" t="n">
-        <v>951.1241310276853</v>
+        <v>1122.790583959422</v>
       </c>
       <c r="W36" t="n">
-        <v>902.6506654005618</v>
+        <v>892.6733380927085</v>
       </c>
       <c r="X36" t="n">
-        <v>713.3435877505735</v>
+        <v>703.3662604427202</v>
       </c>
       <c r="Y36" t="n">
-        <v>534.0293708260808</v>
+        <v>703.3662604427202</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.8310631621655</v>
+        <v>467.8084570179418</v>
       </c>
       <c r="C37" t="n">
-        <v>814.6259452281547</v>
+        <v>297.603339083931</v>
       </c>
       <c r="D37" t="n">
-        <v>658.9928321306694</v>
+        <v>178.9600161471268</v>
       </c>
       <c r="E37" t="n">
-        <v>503.4340199898719</v>
+        <v>178.9600161471268</v>
       </c>
       <c r="F37" t="n">
-        <v>346.1080852028448</v>
+        <v>178.9600161471268</v>
       </c>
       <c r="G37" t="n">
         <v>178.9600161471268</v>
       </c>
       <c r="H37" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I37" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J37" t="n">
         <v>80.1780184947354</v>
       </c>
       <c r="K37" t="n">
-        <v>123.0962599465488</v>
+        <v>287.9513326892302</v>
       </c>
       <c r="L37" t="n">
-        <v>448.3815303387194</v>
+        <v>602.0628206393063</v>
       </c>
       <c r="M37" t="n">
-        <v>804.5912340914549</v>
+        <v>958.2725243920419</v>
       </c>
       <c r="N37" t="n">
-        <v>1004.645490573222</v>
+        <v>1307.340010601051</v>
       </c>
       <c r="O37" t="n">
-        <v>1320.565302209502</v>
+        <v>1623.259822237331</v>
       </c>
       <c r="P37" t="n">
-        <v>1571.543407353599</v>
+        <v>1665.733790999223</v>
       </c>
       <c r="Q37" t="n">
         <v>1665.733790999223</v>
@@ -7122,25 +7122,25 @@
         <v>1665.733790999223</v>
       </c>
       <c r="S37" t="n">
-        <v>1501.203008696193</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="T37" t="n">
-        <v>1270.209528474183</v>
+        <v>1251.198526482957</v>
       </c>
       <c r="U37" t="n">
-        <v>984.8310631621655</v>
+        <v>1251.198526482957</v>
       </c>
       <c r="V37" t="n">
-        <v>984.8310631621655</v>
+        <v>985.2191813037811</v>
       </c>
       <c r="W37" t="n">
-        <v>984.8310631621655</v>
+        <v>701.8887792349587</v>
       </c>
       <c r="X37" t="n">
-        <v>984.8310631621655</v>
+        <v>467.8084570179418</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.8310631621655</v>
+        <v>467.8084570179418</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1068.071500416656</v>
+        <v>846.5953527239787</v>
       </c>
       <c r="C38" t="n">
-        <v>1068.071500416656</v>
+        <v>846.5953527239787</v>
       </c>
       <c r="D38" t="n">
-        <v>852.7926391734622</v>
+        <v>846.5953527239787</v>
       </c>
       <c r="E38" t="n">
-        <v>450.2091142900067</v>
+        <v>444.0118278405233</v>
       </c>
       <c r="F38" t="n">
-        <v>33.31467581998446</v>
+        <v>444.0118278405233</v>
       </c>
       <c r="G38" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H38" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I38" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J38" t="n">
         <v>121.9122768049704</v>
       </c>
       <c r="K38" t="n">
-        <v>287.6771509825641</v>
+        <v>287.6771509825639</v>
       </c>
       <c r="L38" t="n">
-        <v>517.3092805403762</v>
+        <v>517.3092805403763</v>
       </c>
       <c r="M38" t="n">
-        <v>793.4044043866271</v>
+        <v>793.4044043866272</v>
       </c>
       <c r="N38" t="n">
         <v>1076.966011431517</v>
       </c>
       <c r="O38" t="n">
-        <v>1336.057276292663</v>
+        <v>1336.057276292664</v>
       </c>
       <c r="P38" t="n">
         <v>1534.760026005067</v>
       </c>
       <c r="Q38" t="n">
-        <v>1652.665230572189</v>
+        <v>1652.66523057219</v>
       </c>
       <c r="R38" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S38" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="T38" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="U38" t="n">
-        <v>1410.178309713138</v>
+        <v>1410.178309713139</v>
       </c>
       <c r="V38" t="n">
-        <v>1068.071500416656</v>
+        <v>1410.178309713139</v>
       </c>
       <c r="W38" t="n">
-        <v>1068.071500416656</v>
+        <v>1410.178309713139</v>
       </c>
       <c r="X38" t="n">
-        <v>1068.071500416656</v>
+        <v>1020.725704646196</v>
       </c>
       <c r="Y38" t="n">
-        <v>1068.071500416656</v>
+        <v>846.5953527239787</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>769.2333592129132</v>
+        <v>543.0225439626386</v>
       </c>
       <c r="C39" t="n">
-        <v>618.5791287730054</v>
+        <v>543.0225439626386</v>
       </c>
       <c r="D39" t="n">
-        <v>488.4901613944858</v>
+        <v>412.933576584119</v>
       </c>
       <c r="E39" t="n">
-        <v>352.0436705053735</v>
+        <v>276.4870856950067</v>
       </c>
       <c r="F39" t="n">
-        <v>227.6118643885053</v>
+        <v>152.0552795781385</v>
       </c>
       <c r="G39" t="n">
-        <v>108.8712606303513</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H39" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I39" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J39" t="n">
-        <v>268.5861944699948</v>
+        <v>73.85119949026739</v>
       </c>
       <c r="K39" t="n">
-        <v>477.8957463903988</v>
+        <v>193.9352110764772</v>
       </c>
       <c r="L39" t="n">
-        <v>669.4731710063743</v>
+        <v>385.5126356924527</v>
       </c>
       <c r="M39" t="n">
-        <v>905.6169537218404</v>
+        <v>621.6564184079189</v>
       </c>
       <c r="N39" t="n">
-        <v>1157.376378893265</v>
+        <v>873.4158435793436</v>
       </c>
       <c r="O39" t="n">
-        <v>1373.244200849918</v>
+        <v>1089.283665535996</v>
       </c>
       <c r="P39" t="n">
-        <v>1533.93066615536</v>
+        <v>1249.970130841439</v>
       </c>
       <c r="Q39" t="n">
-        <v>1608.897835145041</v>
+        <v>1649.380663010365</v>
       </c>
       <c r="R39" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S39" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="T39" t="n">
-        <v>1519.768234095069</v>
+        <v>1494.067338067488</v>
       </c>
       <c r="U39" t="n">
-        <v>1519.768234095069</v>
+        <v>1284.090985152049</v>
       </c>
       <c r="V39" t="n">
-        <v>1519.768234095069</v>
+        <v>1141.761084403833</v>
       </c>
       <c r="W39" t="n">
-        <v>1289.650988228356</v>
+        <v>911.6438385371196</v>
       </c>
       <c r="X39" t="n">
-        <v>1100.343910578367</v>
+        <v>722.3367608871313</v>
       </c>
       <c r="Y39" t="n">
-        <v>921.0296936538746</v>
+        <v>543.0225439626386</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.6406106070115</v>
+        <v>346.2737237044968</v>
       </c>
       <c r="C40" t="n">
-        <v>190.6406106070115</v>
+        <v>346.2737237044968</v>
       </c>
       <c r="D40" t="n">
         <v>190.6406106070115</v>
@@ -7320,64 +7320,64 @@
         <v>190.6406106070115</v>
       </c>
       <c r="F40" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="G40" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H40" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I40" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J40" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="K40" t="n">
-        <v>241.0879900144793</v>
+        <v>76.23291727179786</v>
       </c>
       <c r="L40" t="n">
-        <v>551.1698501469463</v>
+        <v>393.5586842571016</v>
       </c>
       <c r="M40" t="n">
-        <v>907.3795538996818</v>
+        <v>749.7683880098372</v>
       </c>
       <c r="N40" t="n">
-        <v>1256.447040108691</v>
+        <v>1098.835874218846</v>
       </c>
       <c r="O40" t="n">
-        <v>1320.565302209502</v>
+        <v>1414.755685855126</v>
       </c>
       <c r="P40" t="n">
-        <v>1571.543407353599</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="Q40" t="n">
-        <v>1665.733790999223</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="R40" t="n">
-        <v>1591.561902018717</v>
+        <v>1665.733790999224</v>
       </c>
       <c r="S40" t="n">
-        <v>1408.020117724461</v>
+        <v>1482.192006704968</v>
       </c>
       <c r="T40" t="n">
-        <v>1177.026637502451</v>
+        <v>1404.073997447869</v>
       </c>
       <c r="U40" t="n">
-        <v>891.6481721904333</v>
+        <v>1118.695532135851</v>
       </c>
       <c r="V40" t="n">
-        <v>625.6688270112576</v>
+        <v>852.7161869566758</v>
       </c>
       <c r="W40" t="n">
-        <v>342.3384249424352</v>
+        <v>569.3857848878534</v>
       </c>
       <c r="X40" t="n">
-        <v>190.6406106070115</v>
+        <v>569.3857848878534</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.6406106070115</v>
+        <v>346.2737237044968</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>868.7483362084272</v>
+        <v>800.9801774770137</v>
       </c>
       <c r="C41" t="n">
-        <v>475.5728347113578</v>
+        <v>407.8046759799443</v>
       </c>
       <c r="D41" t="n">
-        <v>475.5728347113578</v>
+        <v>407.8046759799443</v>
       </c>
       <c r="E41" t="n">
-        <v>72.98930982790228</v>
+        <v>407.8046759799443</v>
       </c>
       <c r="F41" t="n">
-        <v>33.31467581998446</v>
+        <v>407.8046759799443</v>
       </c>
       <c r="G41" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H41" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I41" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J41" t="n">
-        <v>121.91227680497</v>
+        <v>121.9122768049704</v>
       </c>
       <c r="K41" t="n">
-        <v>287.6771509825639</v>
+        <v>287.6771509825641</v>
       </c>
       <c r="L41" t="n">
         <v>517.3092805403762</v>
       </c>
       <c r="M41" t="n">
-        <v>793.4044043866271</v>
+        <v>793.4044043866272</v>
       </c>
       <c r="N41" t="n">
         <v>1076.966011431517</v>
       </c>
       <c r="O41" t="n">
-        <v>1336.057276292663</v>
+        <v>1336.057276292664</v>
       </c>
       <c r="P41" t="n">
         <v>1534.760026005067</v>
@@ -7441,22 +7441,22 @@
         <v>1665.733790999223</v>
       </c>
       <c r="T41" t="n">
-        <v>1665.733790999223</v>
+        <v>1453.026367842497</v>
       </c>
       <c r="U41" t="n">
-        <v>1665.733790999223</v>
+        <v>1197.470886556413</v>
       </c>
       <c r="V41" t="n">
-        <v>1665.733790999223</v>
+        <v>1197.470886556413</v>
       </c>
       <c r="W41" t="n">
-        <v>1665.733790999223</v>
+        <v>1197.470886556413</v>
       </c>
       <c r="X41" t="n">
-        <v>1665.733790999223</v>
+        <v>1197.470886556413</v>
       </c>
       <c r="Y41" t="n">
-        <v>1269.243081919824</v>
+        <v>800.9801774770137</v>
       </c>
     </row>
     <row r="42">
@@ -7466,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>432.7984773965659</v>
+        <v>582.5028364532045</v>
       </c>
       <c r="C42" t="n">
-        <v>282.1442469566582</v>
+        <v>431.8486060132967</v>
       </c>
       <c r="D42" t="n">
-        <v>152.0552795781385</v>
+        <v>301.759638634777</v>
       </c>
       <c r="E42" t="n">
-        <v>152.0552795781385</v>
+        <v>301.759638634777</v>
       </c>
       <c r="F42" t="n">
-        <v>152.0552795781385</v>
+        <v>231.5788059452117</v>
       </c>
       <c r="G42" t="n">
-        <v>33.31467581998446</v>
+        <v>112.8382021870576</v>
       </c>
       <c r="H42" t="n">
-        <v>33.31467581998446</v>
+        <v>37.28161737669083</v>
       </c>
       <c r="I42" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J42" t="n">
-        <v>73.85119949026736</v>
+        <v>73.85119949026738</v>
       </c>
       <c r="K42" t="n">
         <v>193.9352110764772</v>
@@ -7502,16 +7502,16 @@
         <v>621.6564184079189</v>
       </c>
       <c r="N42" t="n">
-        <v>873.4158435793436</v>
+        <v>1033.925531680227</v>
       </c>
       <c r="O42" t="n">
-        <v>1089.283665535996</v>
+        <v>1249.793353636879</v>
       </c>
       <c r="P42" t="n">
-        <v>1249.970130841439</v>
+        <v>1410.479818942322</v>
       </c>
       <c r="Q42" t="n">
-        <v>1608.897835145041</v>
+        <v>1608.897835145042</v>
       </c>
       <c r="R42" t="n">
         <v>1665.733790999223</v>
@@ -7526,16 +7526,16 @@
         <v>1173.664132656618</v>
       </c>
       <c r="V42" t="n">
-        <v>953.2161064120082</v>
+        <v>951.1241310276855</v>
       </c>
       <c r="W42" t="n">
-        <v>953.2161064120082</v>
+        <v>951.1241310276855</v>
       </c>
       <c r="X42" t="n">
-        <v>763.9090287620199</v>
+        <v>761.8170533776972</v>
       </c>
       <c r="Y42" t="n">
-        <v>584.5948118375272</v>
+        <v>582.5028364532045</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>984.8310631621655</v>
+        <v>526.3009759071986</v>
       </c>
       <c r="C43" t="n">
-        <v>814.6259452281547</v>
+        <v>356.0958579731878</v>
       </c>
       <c r="D43" t="n">
-        <v>658.9928321306694</v>
+        <v>200.4627448757025</v>
       </c>
       <c r="E43" t="n">
-        <v>503.4340199898719</v>
+        <v>200.4627448757025</v>
       </c>
       <c r="F43" t="n">
-        <v>346.1080852028448</v>
+        <v>200.4627448757025</v>
       </c>
       <c r="G43" t="n">
-        <v>178.9600161471268</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H43" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I43" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J43" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="K43" t="n">
-        <v>241.0879900144793</v>
+        <v>76.23291727179785</v>
       </c>
       <c r="L43" t="n">
-        <v>551.1698501469463</v>
+        <v>393.5586842571012</v>
       </c>
       <c r="M43" t="n">
-        <v>907.3795538996818</v>
+        <v>749.7683880098367</v>
       </c>
       <c r="N43" t="n">
-        <v>1256.447040108691</v>
+        <v>1098.835874218846</v>
       </c>
       <c r="O43" t="n">
-        <v>1320.565302209502</v>
+        <v>1414.755685855126</v>
       </c>
       <c r="P43" t="n">
-        <v>1571.543407353599</v>
+        <v>1665.733790999223</v>
       </c>
       <c r="Q43" t="n">
         <v>1665.733790999223</v>
@@ -7596,25 +7596,25 @@
         <v>1665.733790999223</v>
       </c>
       <c r="S43" t="n">
-        <v>1665.733790999223</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="T43" t="n">
-        <v>1665.733790999223</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="U43" t="n">
-        <v>1436.018427032643</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="V43" t="n">
-        <v>1170.039081853467</v>
+        <v>1216.212661525791</v>
       </c>
       <c r="W43" t="n">
-        <v>1170.039081853467</v>
+        <v>932.8822594569688</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.039081853467</v>
+        <v>749.4130370905552</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.039081853467</v>
+        <v>526.3009759071986</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>811.9313061003861</v>
+        <v>1145.427541400593</v>
       </c>
       <c r="C44" t="n">
-        <v>418.7558046033167</v>
+        <v>1145.427541400593</v>
       </c>
       <c r="D44" t="n">
-        <v>33.31467581998446</v>
+        <v>1145.427541400593</v>
       </c>
       <c r="E44" t="n">
-        <v>33.31467581998446</v>
+        <v>742.8440165171379</v>
       </c>
       <c r="F44" t="n">
-        <v>33.31467581998446</v>
+        <v>742.8440165171379</v>
       </c>
       <c r="G44" t="n">
-        <v>33.31467581998446</v>
+        <v>332.1468644965991</v>
       </c>
       <c r="H44" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I44" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J44" t="n">
         <v>121.9122768049703</v>
       </c>
       <c r="K44" t="n">
-        <v>287.677150982564</v>
+        <v>287.6771509825641</v>
       </c>
       <c r="L44" t="n">
-        <v>517.3092805403763</v>
+        <v>517.3092805403764</v>
       </c>
       <c r="M44" t="n">
-        <v>793.4044043866272</v>
+        <v>793.4044043866274</v>
       </c>
       <c r="N44" t="n">
         <v>1076.966011431517</v>
@@ -7681,19 +7681,19 @@
         <v>1665.733790999223</v>
       </c>
       <c r="U44" t="n">
-        <v>1601.878656878726</v>
+        <v>1541.918250479992</v>
       </c>
       <c r="V44" t="n">
-        <v>1601.878656878726</v>
+        <v>1541.918250479992</v>
       </c>
       <c r="W44" t="n">
-        <v>1601.878656878726</v>
+        <v>1541.918250479992</v>
       </c>
       <c r="X44" t="n">
-        <v>1212.426051811783</v>
+        <v>1541.918250479992</v>
       </c>
       <c r="Y44" t="n">
-        <v>1212.426051811783</v>
+        <v>1145.427541400593</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>200.5892561455298</v>
+        <v>424.2819402044846</v>
       </c>
       <c r="C45" t="n">
-        <v>49.93502570562197</v>
+        <v>424.2819402044846</v>
       </c>
       <c r="D45" t="n">
-        <v>33.31467581998446</v>
+        <v>294.1929728259649</v>
       </c>
       <c r="E45" t="n">
-        <v>33.31467581998446</v>
+        <v>157.7464819368527</v>
       </c>
       <c r="F45" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="G45" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="H45" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I45" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J45" t="n">
-        <v>73.85119949026736</v>
+        <v>73.85119949026738</v>
       </c>
       <c r="K45" t="n">
-        <v>477.8957463903988</v>
+        <v>193.9352110764772</v>
       </c>
       <c r="L45" t="n">
-        <v>669.4731710063743</v>
+        <v>385.5126356924527</v>
       </c>
       <c r="M45" t="n">
-        <v>905.6169537218404</v>
+        <v>621.6564184079189</v>
       </c>
       <c r="N45" t="n">
-        <v>1157.376378893265</v>
+        <v>873.4158435793436</v>
       </c>
       <c r="O45" t="n">
-        <v>1373.244200849918</v>
+        <v>1089.283665535996</v>
       </c>
       <c r="P45" t="n">
-        <v>1533.93066615536</v>
+        <v>1501.552778808304</v>
       </c>
       <c r="Q45" t="n">
-        <v>1608.897835145041</v>
+        <v>1665.733790999223</v>
       </c>
       <c r="R45" t="n">
         <v>1665.733790999223</v>
@@ -7763,16 +7763,16 @@
         <v>1173.664132656618</v>
       </c>
       <c r="V45" t="n">
-        <v>951.1241310276853</v>
+        <v>951.1241310276855</v>
       </c>
       <c r="W45" t="n">
-        <v>721.0068851609722</v>
+        <v>721.0068851609724</v>
       </c>
       <c r="X45" t="n">
-        <v>531.6998075109839</v>
+        <v>576.078274645446</v>
       </c>
       <c r="Y45" t="n">
-        <v>352.3855905864911</v>
+        <v>576.078274645446</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>178.9600161471268</v>
+        <v>982.1323393087742</v>
       </c>
       <c r="C46" t="n">
-        <v>178.9600161471268</v>
+        <v>811.9272213747635</v>
       </c>
       <c r="D46" t="n">
-        <v>178.9600161471268</v>
+        <v>656.2941082772782</v>
       </c>
       <c r="E46" t="n">
-        <v>178.9600161471268</v>
+        <v>500.7352961364807</v>
       </c>
       <c r="F46" t="n">
-        <v>178.9600161471268</v>
+        <v>343.4093613494536</v>
       </c>
       <c r="G46" t="n">
-        <v>178.9600161471268</v>
+        <v>176.2612922937356</v>
       </c>
       <c r="H46" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="I46" t="n">
-        <v>33.31467581998446</v>
+        <v>33.31467581998447</v>
       </c>
       <c r="J46" t="n">
-        <v>33.31467581998446</v>
+        <v>80.1780184947354</v>
       </c>
       <c r="K46" t="n">
-        <v>241.0879900144793</v>
+        <v>287.9513326892302</v>
       </c>
       <c r="L46" t="n">
-        <v>566.3732604066499</v>
+        <v>393.5586842571012</v>
       </c>
       <c r="M46" t="n">
-        <v>655.5780043642129</v>
+        <v>749.7683880098367</v>
       </c>
       <c r="N46" t="n">
-        <v>1004.645490573222</v>
+        <v>1098.835874218846</v>
       </c>
       <c r="O46" t="n">
-        <v>1320.565302209502</v>
+        <v>1414.755685855126</v>
       </c>
       <c r="P46" t="n">
-        <v>1571.543407353599</v>
+        <v>1665.733790999223</v>
       </c>
       <c r="Q46" t="n">
         <v>1665.733790999223</v>
       </c>
       <c r="R46" t="n">
-        <v>1591.561902018717</v>
+        <v>1665.733790999223</v>
       </c>
       <c r="S46" t="n">
-        <v>1591.561902018717</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="T46" t="n">
-        <v>1591.561902018717</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="U46" t="n">
-        <v>1370.6701654868</v>
+        <v>1482.192006704967</v>
       </c>
       <c r="V46" t="n">
-        <v>1104.690820307624</v>
+        <v>1216.212661525791</v>
       </c>
       <c r="W46" t="n">
-        <v>821.3604182388017</v>
+        <v>1216.212661525791</v>
       </c>
       <c r="X46" t="n">
-        <v>587.2800960217847</v>
+        <v>982.1323393087742</v>
       </c>
       <c r="Y46" t="n">
-        <v>364.1680348384281</v>
+        <v>982.1323393087742</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65.6101677128689</v>
+        <v>65.61016771286884</v>
       </c>
       <c r="K2" t="n">
-        <v>65.01946517481473</v>
+        <v>65.01946517481471</v>
       </c>
       <c r="L2" t="n">
-        <v>56.43396646106818</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M2" t="n">
-        <v>42.00059636060506</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N2" t="n">
-        <v>39.6509417924747</v>
+        <v>39.65094179247474</v>
       </c>
       <c r="O2" t="n">
-        <v>46.19673452270635</v>
+        <v>46.19673452270656</v>
       </c>
       <c r="P2" t="n">
-        <v>62.08001639703512</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q2" t="n">
-        <v>78.2480779262676</v>
+        <v>78.24807792626756</v>
       </c>
       <c r="R2" t="n">
-        <v>101.593108039665</v>
+        <v>101.5931080396651</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>51.43211845760867</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K3" t="n">
-        <v>36.59190862205913</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L3" t="n">
-        <v>18.7885472170336</v>
+        <v>18.78854721703357</v>
       </c>
       <c r="M3" t="n">
-        <v>9.21629354317848</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14.58875442338395</v>
+        <v>14.58875442338393</v>
       </c>
       <c r="P3" t="n">
-        <v>24.40218892352037</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.0874470308923</v>
+        <v>49.08744703089221</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8139,25 +8139,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>51.88619524178836</v>
+        <v>51.88619524178843</v>
       </c>
       <c r="L4" t="n">
-        <v>46.76134641422888</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M4" t="n">
-        <v>47.16400664275898</v>
+        <v>47.16400664275908</v>
       </c>
       <c r="N4" t="n">
-        <v>40.88357032611196</v>
+        <v>40.88357032611205</v>
       </c>
       <c r="O4" t="n">
-        <v>51.09947095584653</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P4" t="n">
-        <v>56.23986070246478</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.43459031707341</v>
+        <v>75.43459031707346</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>65.61016771286873</v>
+        <v>65.61016771286884</v>
       </c>
       <c r="K5" t="n">
-        <v>65.01946517481456</v>
+        <v>65.01946517481471</v>
       </c>
       <c r="L5" t="n">
-        <v>56.43396646106801</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M5" t="n">
-        <v>42.00059636060489</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N5" t="n">
-        <v>39.65094179247453</v>
+        <v>39.65094179247474</v>
       </c>
       <c r="O5" t="n">
-        <v>46.19673452270635</v>
+        <v>46.19673452270656</v>
       </c>
       <c r="P5" t="n">
-        <v>62.08001639703495</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q5" t="n">
-        <v>78.24807792626743</v>
+        <v>78.24807792626756</v>
       </c>
       <c r="R5" t="n">
-        <v>101.593108039665</v>
+        <v>101.5931080396651</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>51.4321184576085</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K6" t="n">
-        <v>36.59190862205896</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L6" t="n">
-        <v>18.78854721703343</v>
+        <v>18.78854721703357</v>
       </c>
       <c r="M6" t="n">
-        <v>9.21629354317831</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>14.58875442338378</v>
+        <v>14.58875442338393</v>
       </c>
       <c r="P6" t="n">
-        <v>24.4021889235202</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q6" t="n">
-        <v>49.08744703089213</v>
+        <v>49.08744703089221</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8376,25 +8376,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>51.88619524178836</v>
+        <v>51.88619524178843</v>
       </c>
       <c r="L7" t="n">
-        <v>46.76134641422888</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M7" t="n">
-        <v>47.16400664275898</v>
+        <v>47.16400664275908</v>
       </c>
       <c r="N7" t="n">
-        <v>40.88357032611196</v>
+        <v>40.88357032611205</v>
       </c>
       <c r="O7" t="n">
-        <v>51.09947095584653</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P7" t="n">
-        <v>56.23986070246478</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q7" t="n">
-        <v>75.43459031707341</v>
+        <v>75.43459031707346</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.10311736083146</v>
+        <v>50.10311736083145</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.08138215850108</v>
+        <v>47.08138215850107</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.09549975836521</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>9.167801431118519</v>
+        <v>131.0594330892266</v>
       </c>
       <c r="L13" t="n">
-        <v>113.9881414229085</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>111.4192326297105</v>
+        <v>67.83142083711388</v>
       </c>
       <c r="N13" t="n">
-        <v>106.5092612162226</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>58.80639628711499</v>
+        <v>121.0203994082977</v>
       </c>
       <c r="P13" t="n">
-        <v>11.76994589361098</v>
+        <v>133.661577551719</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>44.6459263585382</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083148</v>
+        <v>50.10311736083145</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671227952</v>
+        <v>9.996493671227938</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850109</v>
+        <v>47.08138215850107</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.09549975836521</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>9.167801431118534</v>
+        <v>131.0594330892266</v>
       </c>
       <c r="L16" t="n">
-        <v>113.9881414229085</v>
+        <v>20.14349890494688</v>
       </c>
       <c r="M16" t="n">
-        <v>111.4192326297105</v>
+        <v>111.4192326297106</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>121.0203994082977</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>56.06520398865099</v>
+        <v>133.6615775517191</v>
       </c>
       <c r="Q16" t="n">
         <v>101.9350150692923</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083148</v>
+        <v>50.10311736083145</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671227952</v>
+        <v>9.996493671227938</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850109</v>
+        <v>47.08138215850107</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.09549975836521</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>9.167801431118534</v>
+        <v>131.0594330892266</v>
       </c>
       <c r="L19" t="n">
-        <v>113.9881414229085</v>
+        <v>20.14349890494688</v>
       </c>
       <c r="M19" t="n">
         <v>111.4192326297105</v>
       </c>
       <c r="N19" t="n">
-        <v>106.5092612162226</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>58.80639628711496</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361099</v>
+        <v>133.661577551719</v>
       </c>
       <c r="Q19" t="n">
         <v>101.9350150692923</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083148</v>
+        <v>50.10311736083145</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671227952</v>
+        <v>9.996493671227938</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850109</v>
+        <v>47.08138215850107</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.4725364634484</v>
+        <v>37.0954997583652</v>
       </c>
       <c r="K22" t="n">
-        <v>9.167801431118534</v>
+        <v>9.167801431118505</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>113.9881414229085</v>
       </c>
       <c r="M22" t="n">
-        <v>111.4192326297104</v>
+        <v>106.494318219282</v>
       </c>
       <c r="N22" t="n">
-        <v>106.5092612162225</v>
+        <v>106.5092612162227</v>
       </c>
       <c r="O22" t="n">
-        <v>121.0203994082975</v>
+        <v>121.0203994082977</v>
       </c>
       <c r="P22" t="n">
-        <v>48.16704749025367</v>
+        <v>11.76994589361098</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>44.6459263585382</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>182.107881886081</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>162.1309980817</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>90.12680841837867</v>
       </c>
       <c r="R24" t="n">
-        <v>13.60374848729533</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.4725364634484</v>
+        <v>5.135826690972706</v>
       </c>
       <c r="K25" t="n">
         <v>166.520275497658</v>
@@ -9807,16 +9807,16 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N25" t="n">
-        <v>46.13875057604741</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>254.3449995307766</v>
+        <v>195.253258709598</v>
       </c>
       <c r="P25" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.793213407046323</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>286.8288235494158</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>90.12680841837796</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10035,7 +10035,7 @@
         <v>5.135826690972706</v>
       </c>
       <c r="K28" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>253.4605344048249</v>
@@ -10044,13 +10044,13 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N28" t="n">
-        <v>93.475460348523</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O28" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>202.5703363387249</v>
       </c>
       <c r="Q28" t="n">
         <v>6.793213407046323</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>16.51831109985662</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.12680841837819</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>13.60374848729533</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.4725364634484</v>
+        <v>5.135826690972706</v>
       </c>
       <c r="K31" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.56364670351215</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M31" t="n">
         <v>278.4750710187352</v>
@@ -10287,7 +10287,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6102387699041</v>
+        <v>202.5703363387251</v>
       </c>
       <c r="Q31" t="n">
         <v>6.793213407046323</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>16.51831109985702</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.12680841837842</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>13.60374848729533</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>5.135826690972706</v>
       </c>
       <c r="K34" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M34" t="n">
         <v>278.4750710187352</v>
@@ -10524,10 +10524,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P34" t="n">
-        <v>194.3687935836463</v>
+        <v>202.5703363387253</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>6.793213407046323</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>147.5368648367432</v>
+        <v>90.12680841837825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>13.60374848729533</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>253.4605344048249</v>
+        <v>242.1738854734164</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
-        <v>117.5172244114594</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>6.793213407046323</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>90.126808418378</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>30.12205958715234</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>5.135826690972706</v>
       </c>
       <c r="K40" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>238.1035543445182</v>
+        <v>245.4206319736463</v>
       </c>
       <c r="M40" t="n">
         <v>278.4750710187352</v>
@@ -10995,13 +10995,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>6.793213407046323</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>162.1309980817001</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>286.8288235494157</v>
+        <v>124.6978254677159</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11220,10 +11220,10 @@
         <v>5.135826690972706</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>238.1035543445182</v>
+        <v>245.4206319736458</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11232,13 +11232,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>6.793213407046323</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>286.8288235494158</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>254.1238868352178</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.11499313256338</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>13.60374848729533</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.135826690972706</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>31.56364670351215</v>
       </c>
       <c r="M46" t="n">
-        <v>8.773091427651835</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
         <v>268.0356382773604</v>
@@ -11475,7 +11475,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>6.793213407046323</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542827</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -22561,13 +22561,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>408.417632379864</v>
+        <v>408.4176323798642</v>
       </c>
       <c r="H2" t="n">
-        <v>314.5592583510933</v>
+        <v>314.5592583510934</v>
       </c>
       <c r="I2" t="n">
-        <v>113.3019575056795</v>
+        <v>113.3019575056797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>218.5800195278046</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1461226235862</v>
+        <v>253.1461226235864</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22628,25 +22628,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355085</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.082025980221</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556993</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.5309706766816</v>
+        <v>118.5309706766818</v>
       </c>
       <c r="H3" t="n">
-        <v>84.24424724889796</v>
+        <v>84.24424724889813</v>
       </c>
       <c r="I3" t="n">
-        <v>37.59182348086895</v>
+        <v>37.59182348086897</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.297636417967723</v>
+        <v>3.297636417967762</v>
       </c>
       <c r="S3" t="n">
         <v>127.4842877824192</v>
@@ -22682,13 +22682,13 @@
         <v>173.8908995719998</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9409165544489</v>
+        <v>207.940916554449</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126435</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8160734080458</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -22728,7 +22728,7 @@
         <v>123.4876772080058</v>
       </c>
       <c r="J4" t="n">
-        <v>10.61834268971958</v>
+        <v>10.61834268971961</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>314.5592583510934</v>
       </c>
       <c r="I5" t="n">
-        <v>113.3019575056796</v>
+        <v>113.3019575056797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>84.24424724889813</v>
       </c>
       <c r="I6" t="n">
-        <v>37.59182348086895</v>
+        <v>37.59182348086897</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.297636417967723</v>
+        <v>3.297636417967762</v>
       </c>
       <c r="S6" t="n">
         <v>127.4842877824192</v>
@@ -22965,7 +22965,7 @@
         <v>123.4876772080058</v>
       </c>
       <c r="J7" t="n">
-        <v>10.61834268971958</v>
+        <v>10.61834268971961</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>290.833862427214</v>
+        <v>290.8338624272139</v>
       </c>
       <c r="G11" t="n">
-        <v>285.7063085134688</v>
+        <v>300.2357910071153</v>
       </c>
       <c r="H11" t="n">
-        <v>184.2729538648621</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.70077364567953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272692</v>
       </c>
       <c r="T11" t="n">
         <v>214.9918168860265</v>
@@ -23320,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>245.3974130232874</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.8644264698229</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.38673943844371</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>27.25605647740069</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>43.91772627613997</v>
+        <v>17.62669356268613</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
@@ -23351,13 +23351,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>80.00854575966318</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,13 +23390,13 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T12" t="n">
-        <v>172.1231385962474</v>
+        <v>50.2315069381393</v>
       </c>
       <c r="U12" t="n">
         <v>207.9120630020701</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>98.42296995453556</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
@@ -23405,7 +23405,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>55.62944309713983</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>46.61143509656266</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23436,7 +23436,7 @@
         <v>148.2079894389679</v>
       </c>
       <c r="I13" t="n">
-        <v>112.4303652576383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>93.75581532553738</v>
       </c>
       <c r="S13" t="n">
-        <v>67.6926688642087</v>
+        <v>67.69266886420864</v>
       </c>
       <c r="T13" t="n">
-        <v>108.7233842955223</v>
+        <v>230.6150159536303</v>
       </c>
       <c r="U13" t="n">
-        <v>175.1871885650802</v>
+        <v>160.6577060714336</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>146.4961361624527</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765128</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.5979401715768</v>
+        <v>285.7063085134687</v>
       </c>
       <c r="H14" t="n">
-        <v>198.8024363585086</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.29802119272698</v>
+        <v>10.29802119272686</v>
       </c>
       <c r="T14" t="n">
-        <v>93.10018522791849</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U14" t="n">
-        <v>131.1889155888153</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>366.8644264698228</v>
       </c>
     </row>
     <row r="15">
@@ -23579,16 +23579,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>6.896446046626451</v>
+        <v>6.896446046626338</v>
       </c>
       <c r="E15" t="n">
-        <v>13.19039432211314</v>
+        <v>13.19039432211302</v>
       </c>
       <c r="F15" t="n">
-        <v>1.295856397591507</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>10.73024751605977</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>80.00854575966318</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>119.3379681607525</v>
+        <v>8.176584018704062</v>
       </c>
       <c r="T15" t="n">
         <v>172.1231385962474</v>
@@ -23670,7 +23670,7 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H16" t="n">
-        <v>148.207989438968</v>
+        <v>148.2079894389679</v>
       </c>
       <c r="I16" t="n">
         <v>112.4303652576383</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S16" t="n">
-        <v>67.69266886420868</v>
+        <v>189.5843005223167</v>
       </c>
       <c r="T16" t="n">
-        <v>108.7233842955223</v>
+        <v>108.7233842955222</v>
       </c>
       <c r="U16" t="n">
-        <v>268.9430038906176</v>
+        <v>282.5493377295417</v>
       </c>
       <c r="V16" t="n">
-        <v>141.427920069276</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>158.605466390026</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>109.8478873367386</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>113.5187914070615</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>370.828422735501</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23749,10 +23749,10 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H17" t="n">
-        <v>306.1645855229701</v>
+        <v>184.272953864862</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.70077364567953</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.29802119272703</v>
+        <v>10.29802119272692</v>
       </c>
       <c r="T17" t="n">
-        <v>93.10018522791854</v>
+        <v>93.10018522791843</v>
       </c>
       <c r="U17" t="n">
         <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>231.3235920390553</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.6341703304969</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>13.27167539388242</v>
       </c>
       <c r="G18" t="n">
         <v>118.0923966805212</v>
@@ -23864,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>50.23150693813942</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U18" t="n">
-        <v>97.99625034025317</v>
+        <v>86.02043134396199</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>105.9244417499381</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538039</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>46.61143509656272</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23901,13 +23901,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>142.1463416002327</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9286346603149</v>
+        <v>44.03700300220687</v>
       </c>
       <c r="H19" t="n">
-        <v>148.207989438968</v>
+        <v>148.2079894389679</v>
       </c>
       <c r="I19" t="n">
         <v>112.4303652576383</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S19" t="n">
         <v>189.5843005223167</v>
@@ -23946,19 +23946,19 @@
         <v>230.6150159536303</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714336</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>141.427920069276</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>173.1349488836726</v>
       </c>
       <c r="X19" t="n">
-        <v>109.8478873367388</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.98930891341512</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>370.8284227355011</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23980,13 +23980,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>387.06411856654</v>
       </c>
       <c r="G20" t="n">
         <v>407.5979401715768</v>
       </c>
       <c r="H20" t="n">
-        <v>184.2729538648622</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272692</v>
       </c>
       <c r="T20" t="n">
-        <v>214.9918168860265</v>
+        <v>93.10018522791843</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0805472469234</v>
+        <v>131.1889155888153</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>245.3974130232875</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>263.6664473581658</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24050,10 +24050,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>27.2560564774008</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>6.896446046626565</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
         <v>135.0820259802211</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T21" t="n">
         <v>172.1231385962474</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9120630020701</v>
+        <v>86.02043134396199</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>112.9524524481821</v>
       </c>
       <c r="W21" t="n">
-        <v>117.9002607462292</v>
+        <v>105.9244417499379</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538039</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -24141,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>44.03700300220704</v>
+        <v>165.9286346603149</v>
       </c>
       <c r="H22" t="n">
-        <v>148.207989438968</v>
+        <v>148.2079894389679</v>
       </c>
       <c r="I22" t="n">
         <v>112.4303652576383</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S22" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T22" t="n">
-        <v>108.7233842955224</v>
+        <v>123.2528667891688</v>
       </c>
       <c r="U22" t="n">
-        <v>160.6577060714338</v>
+        <v>160.6577060714336</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>141.427920069276</v>
       </c>
       <c r="W22" t="n">
-        <v>266.8907642092101</v>
+        <v>158.6054663900261</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>406.5901805003334</v>
@@ -24226,7 +24226,7 @@
         <v>295.8438667898484</v>
       </c>
       <c r="I23" t="n">
-        <v>42.84911892006761</v>
+        <v>23.77092334894556</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.9764695354149</v>
+        <v>109.2253293423756</v>
       </c>
       <c r="T23" t="n">
         <v>210.5803489251584</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24293,16 +24293,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>132.4927836786629</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.5531977205725</v>
       </c>
       <c r="H24" t="n">
-        <v>31.70972390338091</v>
+        <v>74.80101896226314</v>
       </c>
       <c r="I24" t="n">
         <v>3.927272141139305</v>
@@ -24338,7 +24338,7 @@
         <v>109.3225839704759</v>
       </c>
       <c r="T24" t="n">
-        <v>169.9497884024187</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>73.4301700907009</v>
       </c>
       <c r="S25" t="n">
-        <v>18.48825012562824</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.6835454197902</v>
       </c>
       <c r="U25" t="n">
         <v>282.5246806588969</v>
@@ -24429,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>21.54422370068414</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>353.4985993127331</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24460,10 +24460,10 @@
         <v>406.5901805003334</v>
       </c>
       <c r="H26" t="n">
-        <v>295.8438667898484</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.84911892006761</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>109.2253293423756</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5803489251584</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.9999264732239</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>320.3541280269569</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>149.9398702162453</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>109.3225839704759</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>5.504403045544109</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.4765883651609</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.282891320341321</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.8361003088233</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>73.4301700907009</v>
       </c>
       <c r="S28" t="n">
-        <v>10.68564527736121</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.6835454197902</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5246806588969</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24688,16 +24688,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.5901805003334</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>295.8438667898484</v>
+        <v>230.2761605401793</v>
       </c>
       <c r="I29" t="n">
         <v>42.84911892006761</v>
@@ -24736,16 +24736,16 @@
         <v>210.5803489251584</v>
       </c>
       <c r="U29" t="n">
-        <v>210.0363713395599</v>
+        <v>252.9999264732239</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.5531977205725</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>74.80101896226314</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.927272141139305</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.644549515657456</v>
+        <v>109.3225839704759</v>
       </c>
       <c r="T30" t="n">
-        <v>169.9497884024187</v>
+        <v>9.305295622963826</v>
       </c>
       <c r="U30" t="n">
-        <v>207.876589386284</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8403420285304</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.4765883651609</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.1888869238709</v>
       </c>
       <c r="I31" t="n">
         <v>98.8361003088233</v>
@@ -24888,19 +24888,19 @@
         <v>73.4301700907009</v>
       </c>
       <c r="S31" t="n">
-        <v>181.7063664513136</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.6835454197902</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5246806588969</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>73.2567778444423</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>74.51458919375921</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>295.8438667898484</v>
       </c>
       <c r="I32" t="n">
-        <v>42.84911892006761</v>
+        <v>41.11735736718023</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>210.5803489251584</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.9999264732239</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>88.03358672636585</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>1.00768131526731</v>
+        <v>117.5531977205725</v>
       </c>
       <c r="H33" t="n">
-        <v>74.80101896226314</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.927272141139305</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>109.3225839704759</v>
       </c>
       <c r="T33" t="n">
-        <v>169.9497884024187</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.876589386284</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25125,13 +25125,13 @@
         <v>73.4301700907009</v>
       </c>
       <c r="S34" t="n">
-        <v>181.7063664513136</v>
+        <v>73.25677784444214</v>
       </c>
       <c r="T34" t="n">
-        <v>228.6835454197902</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>14.72587123239731</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25171,7 +25171,7 @@
         <v>406.5901805003334</v>
       </c>
       <c r="H35" t="n">
-        <v>295.8438667898484</v>
+        <v>9.087338666654432</v>
       </c>
       <c r="I35" t="n">
         <v>42.84911892006761</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>102.0836063995861</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25241,16 +25241,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>15.82497435318454</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>74.80101896226314</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>169.9497884024187</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>179.8273424371938</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>36.61989225907422</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.4765883651609</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>73.4301700907009</v>
       </c>
       <c r="S37" t="n">
-        <v>18.82089197131384</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5246806588969</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25396,16 +25396,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>168.4606448647368</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>406.5901805003334</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>295.8438667898484</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>220.1367535856102</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>74.80101896226314</v>
       </c>
       <c r="I39" t="n">
         <v>3.927272141139305</v>
@@ -25523,13 +25523,13 @@
         <v>109.3225839704759</v>
       </c>
       <c r="T39" t="n">
-        <v>25.44388706730604</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.876589386284</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>79.40799987190934</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>73.4301700907009</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>151.3467162552622</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>81.55868280277727</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>373.4476064174834</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>406.5901805003334</v>
+        <v>35.84508034197313</v>
       </c>
       <c r="H41" t="n">
         <v>295.8438667898484</v>
@@ -25681,10 +25681,10 @@
         <v>109.2253293423756</v>
       </c>
       <c r="T41" t="n">
-        <v>210.5803489251584</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.9999264732239</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>53.70846369302981</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>74.80101896226314</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.927272141139305</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2.071055630479748</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.1888869238709</v>
       </c>
       <c r="I43" t="n">
         <v>98.8361003088233</v>
@@ -25836,25 +25836,25 @@
         <v>73.4301700907009</v>
       </c>
       <c r="S43" t="n">
-        <v>181.7063664513136</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>228.6835454197902</v>
       </c>
       <c r="U43" t="n">
-        <v>55.10647033198242</v>
+        <v>282.5246806588969</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>50.10498885209734</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>406.5901805003334</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>295.8438667898484</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>42.84911892006761</v>
@@ -25921,7 +25921,7 @@
         <v>210.5803489251584</v>
       </c>
       <c r="U44" t="n">
-        <v>189.7833436939323</v>
+        <v>130.4225413591852</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25930,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,16 +25946,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>112.3339313179533</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>117.5531977205725</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>43.9346824631173</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4765883651609</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.671736614857338</v>
       </c>
       <c r="I46" t="n">
         <v>98.8361003088233</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>73.4301700907009</v>
       </c>
       <c r="S46" t="n">
-        <v>181.7063664513136</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>228.6835454197902</v>
       </c>
       <c r="U46" t="n">
-        <v>63.84186149229899</v>
+        <v>282.5246806588969</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>223407.5800064139</v>
+        <v>223407.5800064137</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>302993.4128331037</v>
+        <v>302993.4128331036</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>302993.4128331036</v>
+        <v>302993.4128331037</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>302993.4128331037</v>
+        <v>302993.4128331036</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>531809.1655604865</v>
+        <v>531809.1655604866</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>531809.1655604865</v>
+        <v>531809.1655604864</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>531809.1655604865</v>
+        <v>531809.1655604867</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>531809.1655604867</v>
+        <v>531809.1655604866</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>531809.1655604866</v>
+        <v>531809.1655604867</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>531809.1655604866</v>
+        <v>531809.1655604865</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80013.07585324153</v>
+        <v>80013.07585324149</v>
       </c>
       <c r="C2" t="n">
-        <v>80013.07585324149</v>
+        <v>80013.07585324148</v>
       </c>
       <c r="D2" t="n">
         <v>80386.55771455533</v>
@@ -26325,22 +26325,22 @@
         <v>118356.1129368716</v>
       </c>
       <c r="F2" t="n">
-        <v>118356.1129368716</v>
+        <v>118356.1129368717</v>
       </c>
       <c r="G2" t="n">
         <v>118356.1129368716</v>
       </c>
       <c r="H2" t="n">
-        <v>118356.1129368716</v>
+        <v>118356.1129368717</v>
       </c>
       <c r="I2" t="n">
-        <v>206242.5258608838</v>
+        <v>206242.5258608839</v>
       </c>
       <c r="J2" t="n">
         <v>206242.5258608839</v>
       </c>
       <c r="K2" t="n">
-        <v>206242.525860884</v>
+        <v>206242.5258608839</v>
       </c>
       <c r="L2" t="n">
         <v>206242.5258608839</v>
@@ -26352,7 +26352,7 @@
         <v>206242.5258608839</v>
       </c>
       <c r="O2" t="n">
-        <v>206242.5258608839</v>
+        <v>206242.5258608838</v>
       </c>
       <c r="P2" t="n">
         <v>206242.5258608838</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147054.1129711577</v>
+        <v>147054.1129711574</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14482.50058438074</v>
+        <v>14482.50058438101</v>
       </c>
       <c r="E3" t="n">
         <v>186620.7242682166</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>267024.1378631626</v>
+        <v>267024.1378631624</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30375.88217572715</v>
+        <v>30375.88217572714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23374.89037331009</v>
+        <v>23374.8903733101</v>
       </c>
       <c r="C4" t="n">
-        <v>23374.89037331004</v>
+        <v>23374.8903733101</v>
       </c>
       <c r="D4" t="n">
-        <v>20160.46211678902</v>
+        <v>20160.46211678901</v>
       </c>
       <c r="E4" t="n">
-        <v>7208.829004001249</v>
+        <v>7208.829004001251</v>
       </c>
       <c r="F4" t="n">
         <v>7208.829004001251</v>
@@ -26435,10 +26435,10 @@
         <v>7208.829004001249</v>
       </c>
       <c r="H4" t="n">
-        <v>7208.829004001247</v>
+        <v>7208.82900400125</v>
       </c>
       <c r="I4" t="n">
-        <v>16563.96180345285</v>
+        <v>16563.96180345286</v>
       </c>
       <c r="J4" t="n">
         <v>16563.96180345285</v>
@@ -26450,10 +26450,10 @@
         <v>16563.96180345286</v>
       </c>
       <c r="M4" t="n">
-        <v>16563.96180345285</v>
+        <v>16563.96180345286</v>
       </c>
       <c r="N4" t="n">
-        <v>16563.96180345285</v>
+        <v>16563.96180345286</v>
       </c>
       <c r="O4" t="n">
         <v>16563.96180345285</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36954.43314024535</v>
+        <v>36954.43314024534</v>
       </c>
       <c r="C5" t="n">
-        <v>36954.43314024535</v>
+        <v>36954.43314024534</v>
       </c>
       <c r="D5" t="n">
         <v>37323.08488197248</v>
@@ -26481,16 +26481,16 @@
         <v>15182.83026754883</v>
       </c>
       <c r="F5" t="n">
-        <v>15182.83026754882</v>
+        <v>15182.83026754883</v>
       </c>
       <c r="G5" t="n">
-        <v>15182.83026754882</v>
+        <v>15182.83026754883</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.83026754882</v>
+        <v>15182.83026754883</v>
       </c>
       <c r="I5" t="n">
-        <v>38555.8014431593</v>
+        <v>38555.80144315931</v>
       </c>
       <c r="J5" t="n">
         <v>38555.8014431593</v>
@@ -26499,13 +26499,13 @@
         <v>38555.8014431593</v>
       </c>
       <c r="L5" t="n">
-        <v>38555.8014431593</v>
+        <v>38555.80144315931</v>
       </c>
       <c r="M5" t="n">
         <v>38555.8014431593</v>
       </c>
       <c r="N5" t="n">
-        <v>38555.8014431593</v>
+        <v>38555.80144315931</v>
       </c>
       <c r="O5" t="n">
         <v>38555.8014431593</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127370.3606314716</v>
+        <v>-128773.6170331387</v>
       </c>
       <c r="C6" t="n">
-        <v>19683.75233968611</v>
+        <v>18280.49593801868</v>
       </c>
       <c r="D6" t="n">
-        <v>8420.510131413088</v>
+        <v>7019.121139052035</v>
       </c>
       <c r="E6" t="n">
-        <v>-90656.27060289503</v>
+        <v>-91867.81181914428</v>
       </c>
       <c r="F6" t="n">
-        <v>95964.45366532149</v>
+        <v>94752.91244907235</v>
       </c>
       <c r="G6" t="n">
-        <v>95964.45366532153</v>
+        <v>94752.91244907233</v>
       </c>
       <c r="H6" t="n">
-        <v>95964.45366532152</v>
+        <v>94752.91244907236</v>
       </c>
       <c r="I6" t="n">
-        <v>-115901.3752488909</v>
+        <v>-116673.4844005199</v>
       </c>
       <c r="J6" t="n">
-        <v>151122.7626142717</v>
+        <v>150350.6534626426</v>
       </c>
       <c r="K6" t="n">
-        <v>151122.7626142718</v>
+        <v>150350.6534626426</v>
       </c>
       <c r="L6" t="n">
-        <v>151122.7626142717</v>
+        <v>150350.6534626425</v>
       </c>
       <c r="M6" t="n">
-        <v>120746.8804385445</v>
+        <v>119974.7712869154</v>
       </c>
       <c r="N6" t="n">
-        <v>151122.7626142718</v>
+        <v>150350.6534626425</v>
       </c>
       <c r="O6" t="n">
-        <v>151122.7626142717</v>
+        <v>150350.6534626426</v>
       </c>
       <c r="P6" t="n">
-        <v>151122.7626142717</v>
+        <v>150350.6534626425</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.6070247818965</v>
+        <v>152.6070247818962</v>
       </c>
       <c r="C3" t="n">
-        <v>152.6070247818965</v>
+        <v>152.6070247818962</v>
       </c>
       <c r="D3" t="n">
         <v>169.5176551363521</v>
       </c>
       <c r="E3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933881</v>
       </c>
       <c r="F3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933881</v>
       </c>
       <c r="G3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933881</v>
       </c>
       <c r="H3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933881</v>
       </c>
       <c r="I3" t="n">
         <v>607.1856798151886</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="F4" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="G4" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="I4" t="n">
-        <v>416.4334477498057</v>
+        <v>416.4334477498059</v>
       </c>
       <c r="J4" t="n">
         <v>416.4334477498057</v>
@@ -26822,16 +26822,16 @@
         <v>416.4334477498059</v>
       </c>
       <c r="M4" t="n">
-        <v>416.4334477498057</v>
+        <v>416.4334477498058</v>
       </c>
       <c r="N4" t="n">
-        <v>416.4334477498057</v>
+        <v>416.4334477498059</v>
       </c>
       <c r="O4" t="n">
-        <v>416.4334477498057</v>
+        <v>416.4334477498058</v>
       </c>
       <c r="P4" t="n">
-        <v>416.4334477498057</v>
+        <v>416.4334477498058</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.6070247818965</v>
+        <v>152.6070247818962</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16.91063035445561</v>
+        <v>16.91063035445592</v>
       </c>
       <c r="E3" t="n">
-        <v>186.9878064570358</v>
+        <v>186.9878064570359</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>250.6802182218006</v>
+        <v>250.6802182218005</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6134955770126489</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H2" t="n">
-        <v>6.282961578080792</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I2" t="n">
-        <v>23.65178823278017</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J2" t="n">
-        <v>52.06967022947736</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K2" t="n">
-        <v>78.0389380044228</v>
+        <v>78.03893800442265</v>
       </c>
       <c r="L2" t="n">
-        <v>96.81420326942369</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M2" t="n">
-        <v>107.7244552371224</v>
+        <v>107.7244552371222</v>
       </c>
       <c r="N2" t="n">
-        <v>109.4675495453096</v>
+        <v>109.4675495453094</v>
       </c>
       <c r="O2" t="n">
-        <v>103.36710290139</v>
+        <v>103.3671029013898</v>
       </c>
       <c r="P2" t="n">
-        <v>88.22143084389025</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.25062049212474</v>
+        <v>66.25062049212461</v>
       </c>
       <c r="R2" t="n">
-        <v>38.53749153952084</v>
+        <v>38.53749153952077</v>
       </c>
       <c r="S2" t="n">
-        <v>13.98003046117575</v>
+        <v>13.98003046117572</v>
       </c>
       <c r="T2" t="n">
-        <v>2.685576888372872</v>
+        <v>2.685576888372867</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0490796461610119</v>
+        <v>0.04907964616101181</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3282490721723813</v>
+        <v>0.3282490721723806</v>
       </c>
       <c r="H3" t="n">
-        <v>3.170194986506946</v>
+        <v>3.170194986506939</v>
       </c>
       <c r="I3" t="n">
-        <v>11.30155796733857</v>
+        <v>11.30155796733854</v>
       </c>
       <c r="J3" t="n">
-        <v>31.01233887572485</v>
+        <v>31.01233887572479</v>
       </c>
       <c r="K3" t="n">
-        <v>53.00502671127439</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L3" t="n">
-        <v>71.2717996398848</v>
+        <v>71.27179963988466</v>
       </c>
       <c r="M3" t="n">
-        <v>83.1708285061336</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416683</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>78.09880446550511</v>
+        <v>78.09880446550495</v>
       </c>
       <c r="P3" t="n">
-        <v>62.68117589579445</v>
+        <v>62.68117589579433</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.90070612502186</v>
+        <v>41.90070612502178</v>
       </c>
       <c r="R3" t="n">
-        <v>20.38023625294838</v>
+        <v>20.38023625294834</v>
       </c>
       <c r="S3" t="n">
-        <v>6.097082546710674</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T3" t="n">
-        <v>1.323074111080782</v>
+        <v>1.323074111080779</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02159533369555141</v>
+        <v>0.02159533369555136</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.275192995508338</v>
+        <v>0.2751929955083374</v>
       </c>
       <c r="H4" t="n">
-        <v>2.446715905519589</v>
+        <v>2.446715905519584</v>
       </c>
       <c r="I4" t="n">
-        <v>8.275803901287112</v>
+        <v>8.275803901287096</v>
       </c>
       <c r="J4" t="n">
-        <v>19.45614478243949</v>
+        <v>19.45614478243946</v>
       </c>
       <c r="K4" t="n">
-        <v>31.97242256905962</v>
+        <v>31.97242256905956</v>
       </c>
       <c r="L4" t="n">
-        <v>40.913693168576</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M4" t="n">
-        <v>43.13775292318429</v>
+        <v>43.13775292318419</v>
       </c>
       <c r="N4" t="n">
-        <v>42.1120335762896</v>
+        <v>42.11203357628952</v>
       </c>
       <c r="O4" t="n">
-        <v>38.89727903785128</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P4" t="n">
-        <v>33.28334192948115</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.04366074206638</v>
+        <v>23.04366074206633</v>
       </c>
       <c r="R4" t="n">
-        <v>12.37367777985672</v>
+        <v>12.3736777798567</v>
       </c>
       <c r="S4" t="n">
-        <v>4.795863385358944</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T4" t="n">
-        <v>1.175824617171989</v>
+        <v>1.175824617171987</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01501052702772755</v>
+        <v>0.01501052702772751</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6134955770126489</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H5" t="n">
-        <v>6.282961578080792</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I5" t="n">
-        <v>23.65178823278017</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J5" t="n">
-        <v>52.06967022947736</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K5" t="n">
-        <v>78.0389380044228</v>
+        <v>78.03893800442265</v>
       </c>
       <c r="L5" t="n">
-        <v>96.81420326942369</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M5" t="n">
-        <v>107.7244552371224</v>
+        <v>107.7244552371222</v>
       </c>
       <c r="N5" t="n">
-        <v>109.4675495453096</v>
+        <v>109.4675495453094</v>
       </c>
       <c r="O5" t="n">
-        <v>103.36710290139</v>
+        <v>103.3671029013898</v>
       </c>
       <c r="P5" t="n">
-        <v>88.22143084389025</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q5" t="n">
-        <v>66.25062049212474</v>
+        <v>66.25062049212461</v>
       </c>
       <c r="R5" t="n">
-        <v>38.53749153952084</v>
+        <v>38.53749153952077</v>
       </c>
       <c r="S5" t="n">
-        <v>13.98003046117575</v>
+        <v>13.98003046117572</v>
       </c>
       <c r="T5" t="n">
-        <v>2.685576888372872</v>
+        <v>2.685576888372867</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0490796461610119</v>
+        <v>0.04907964616101181</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3282490721723813</v>
+        <v>0.3282490721723806</v>
       </c>
       <c r="H6" t="n">
-        <v>3.170194986506946</v>
+        <v>3.170194986506939</v>
       </c>
       <c r="I6" t="n">
-        <v>11.30155796733857</v>
+        <v>11.30155796733854</v>
       </c>
       <c r="J6" t="n">
-        <v>31.01233887572485</v>
+        <v>31.01233887572479</v>
       </c>
       <c r="K6" t="n">
-        <v>53.00502671127439</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L6" t="n">
-        <v>71.2717996398848</v>
+        <v>71.27179963988466</v>
       </c>
       <c r="M6" t="n">
-        <v>83.1708285061336</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>78.09880446550511</v>
+        <v>78.09880446550495</v>
       </c>
       <c r="P6" t="n">
-        <v>62.68117589579445</v>
+        <v>62.68117589579433</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.90070612502186</v>
+        <v>41.90070612502178</v>
       </c>
       <c r="R6" t="n">
-        <v>20.38023625294838</v>
+        <v>20.38023625294834</v>
       </c>
       <c r="S6" t="n">
-        <v>6.097082546710674</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T6" t="n">
-        <v>1.323074111080782</v>
+        <v>1.323074111080779</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02159533369555141</v>
+        <v>0.02159533369555136</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.275192995508338</v>
+        <v>0.2751929955083374</v>
       </c>
       <c r="H7" t="n">
-        <v>2.446715905519589</v>
+        <v>2.446715905519584</v>
       </c>
       <c r="I7" t="n">
-        <v>8.275803901287112</v>
+        <v>8.275803901287096</v>
       </c>
       <c r="J7" t="n">
-        <v>19.45614478243949</v>
+        <v>19.45614478243946</v>
       </c>
       <c r="K7" t="n">
-        <v>31.97242256905962</v>
+        <v>31.97242256905956</v>
       </c>
       <c r="L7" t="n">
-        <v>40.913693168576</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M7" t="n">
-        <v>43.13775292318429</v>
+        <v>43.13775292318419</v>
       </c>
       <c r="N7" t="n">
-        <v>42.1120335762896</v>
+        <v>42.11203357628952</v>
       </c>
       <c r="O7" t="n">
-        <v>38.89727903785128</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P7" t="n">
-        <v>33.28334192948115</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q7" t="n">
-        <v>23.04366074206638</v>
+        <v>23.04366074206633</v>
       </c>
       <c r="R7" t="n">
-        <v>12.37367777985672</v>
+        <v>12.3736777798567</v>
       </c>
       <c r="S7" t="n">
-        <v>4.795863385358944</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T7" t="n">
-        <v>1.175824617171989</v>
+        <v>1.175824617171987</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01501052702772755</v>
+        <v>0.01501052702772751</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31755,19 +31755,19 @@
         <v>1.433187785300051</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67763440620415</v>
+        <v>14.67763440620416</v>
       </c>
       <c r="I11" t="n">
-        <v>55.25297209278028</v>
+        <v>55.25297209278029</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6400217926103</v>
+        <v>121.6400217926104</v>
       </c>
       <c r="K11" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443616</v>
       </c>
       <c r="L11" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287381</v>
       </c>
       <c r="M11" t="n">
         <v>251.6552347055678</v>
@@ -31776,7 +31776,7 @@
         <v>255.7272795005516</v>
       </c>
       <c r="O11" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604743</v>
       </c>
       <c r="P11" t="n">
         <v>206.0941950108792</v>
@@ -31785,10 +31785,10 @@
         <v>154.768157449821</v>
       </c>
       <c r="R11" t="n">
-        <v>90.02748221835442</v>
+        <v>90.02748221835444</v>
       </c>
       <c r="S11" t="n">
-        <v>32.65876665752495</v>
+        <v>32.65876665752496</v>
       </c>
       <c r="T11" t="n">
         <v>6.273779530150978</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7668230683329479</v>
+        <v>0.766823068332948</v>
       </c>
       <c r="H12" t="n">
-        <v>7.405896475741892</v>
+        <v>7.405896475741893</v>
       </c>
       <c r="I12" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234054</v>
       </c>
       <c r="J12" t="n">
         <v>72.44796366210541</v>
@@ -31846,13 +31846,13 @@
         <v>123.8251092404129</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4981403413271</v>
+        <v>166.4981403413272</v>
       </c>
       <c r="M12" t="n">
         <v>194.2954765683965</v>
       </c>
       <c r="N12" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889276</v>
       </c>
       <c r="O12" t="n">
         <v>182.4467148590238</v>
@@ -31861,19 +31861,19 @@
         <v>146.4295734608767</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.88429202088648</v>
+        <v>97.88429202088649</v>
       </c>
       <c r="R12" t="n">
-        <v>47.6102954180755</v>
+        <v>47.61029541807551</v>
       </c>
       <c r="S12" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T12" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833241</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453607</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6428787012339783</v>
+        <v>0.6428787012339784</v>
       </c>
       <c r="H13" t="n">
-        <v>5.715776089153011</v>
+        <v>5.715776089153012</v>
       </c>
       <c r="I13" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165456</v>
       </c>
       <c r="J13" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724227</v>
       </c>
       <c r="K13" t="n">
-        <v>74.69081637972947</v>
+        <v>74.69081637972948</v>
       </c>
       <c r="L13" t="n">
-        <v>95.5785298180044</v>
+        <v>95.57852981800441</v>
       </c>
       <c r="M13" t="n">
         <v>100.7741585943408</v>
       </c>
       <c r="N13" t="n">
-        <v>98.37797434428695</v>
+        <v>98.37797434428697</v>
       </c>
       <c r="O13" t="n">
-        <v>90.86798224350817</v>
+        <v>90.86798224350818</v>
       </c>
       <c r="P13" t="n">
         <v>77.75325673833495</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.83232470060159</v>
+        <v>53.8323247006016</v>
       </c>
       <c r="R13" t="n">
         <v>28.90616414821142</v>
@@ -31992,19 +31992,19 @@
         <v>1.433187785300051</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620415</v>
+        <v>14.67763440620416</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278027</v>
+        <v>55.25297209278029</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926103</v>
+        <v>121.6400217926104</v>
       </c>
       <c r="K14" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443616</v>
       </c>
       <c r="L14" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287381</v>
       </c>
       <c r="M14" t="n">
         <v>251.6552347055678</v>
@@ -32013,22 +32013,22 @@
         <v>255.7272795005516</v>
       </c>
       <c r="O14" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604743</v>
       </c>
       <c r="P14" t="n">
-        <v>206.0941950108791</v>
+        <v>206.0941950108792</v>
       </c>
       <c r="Q14" t="n">
         <v>154.768157449821</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835441</v>
+        <v>90.02748221835444</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752494</v>
+        <v>32.65876665752496</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150977</v>
+        <v>6.273779530150978</v>
       </c>
       <c r="U14" t="n">
         <v>0.1146550228240041</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329478</v>
+        <v>0.766823068332948</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741891</v>
+        <v>7.405896475741893</v>
       </c>
       <c r="I15" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234054</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210539</v>
+        <v>72.44796366210541</v>
       </c>
       <c r="K15" t="n">
         <v>123.8251092404129</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4981403413271</v>
+        <v>166.4981403413272</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2954765683964</v>
+        <v>194.2954765683965</v>
       </c>
       <c r="N15" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889276</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590237</v>
+        <v>182.4467148590238</v>
       </c>
       <c r="P15" t="n">
         <v>146.4295734608767</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088646</v>
+        <v>97.88429202088649</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807549</v>
+        <v>47.61029541807551</v>
       </c>
       <c r="S15" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T15" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833241</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453607</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339782</v>
+        <v>0.6428787012339784</v>
       </c>
       <c r="H16" t="n">
-        <v>5.71577608915301</v>
+        <v>5.715776089153012</v>
       </c>
       <c r="I16" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165456</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724227</v>
       </c>
       <c r="K16" t="n">
-        <v>74.69081637972945</v>
+        <v>74.69081637972948</v>
       </c>
       <c r="L16" t="n">
-        <v>95.57852981800438</v>
+        <v>95.57852981800441</v>
       </c>
       <c r="M16" t="n">
         <v>100.7741585943408</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428694</v>
+        <v>98.37797434428697</v>
       </c>
       <c r="O16" t="n">
-        <v>90.86798224350815</v>
+        <v>90.86798224350818</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833494</v>
+        <v>77.75325673833495</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060158</v>
+        <v>53.8323247006016</v>
       </c>
       <c r="R16" t="n">
-        <v>28.90616414821141</v>
+        <v>28.90616414821142</v>
       </c>
       <c r="S16" t="n">
         <v>11.20362245695942</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817906</v>
+        <v>2.746845359817907</v>
       </c>
       <c r="U16" t="n">
         <v>0.03506611097639886</v>
@@ -32229,19 +32229,19 @@
         <v>1.433187785300051</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67763440620415</v>
+        <v>14.67763440620416</v>
       </c>
       <c r="I17" t="n">
-        <v>55.25297209278027</v>
+        <v>55.25297209278029</v>
       </c>
       <c r="J17" t="n">
-        <v>121.6400217926103</v>
+        <v>121.6400217926104</v>
       </c>
       <c r="K17" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443616</v>
       </c>
       <c r="L17" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287381</v>
       </c>
       <c r="M17" t="n">
         <v>251.6552347055678</v>
@@ -32250,22 +32250,22 @@
         <v>255.7272795005516</v>
       </c>
       <c r="O17" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604743</v>
       </c>
       <c r="P17" t="n">
-        <v>206.0941950108791</v>
+        <v>206.0941950108792</v>
       </c>
       <c r="Q17" t="n">
         <v>154.768157449821</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835441</v>
+        <v>90.02748221835444</v>
       </c>
       <c r="S17" t="n">
-        <v>32.65876665752494</v>
+        <v>32.65876665752496</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150977</v>
+        <v>6.273779530150978</v>
       </c>
       <c r="U17" t="n">
         <v>0.1146550228240041</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329478</v>
+        <v>0.766823068332948</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741891</v>
+        <v>7.405896475741893</v>
       </c>
       <c r="I18" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234054</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210539</v>
+        <v>72.44796366210541</v>
       </c>
       <c r="K18" t="n">
         <v>123.8251092404129</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4981403413271</v>
+        <v>166.4981403413272</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2954765683964</v>
+        <v>194.2954765683965</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889276</v>
       </c>
       <c r="O18" t="n">
-        <v>182.4467148590237</v>
+        <v>182.4467148590238</v>
       </c>
       <c r="P18" t="n">
         <v>146.4295734608767</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088646</v>
+        <v>97.88429202088649</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807549</v>
+        <v>47.61029541807551</v>
       </c>
       <c r="S18" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T18" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833241</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453607</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339782</v>
+        <v>0.6428787012339784</v>
       </c>
       <c r="H19" t="n">
-        <v>5.71577608915301</v>
+        <v>5.715776089153012</v>
       </c>
       <c r="I19" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165456</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724227</v>
       </c>
       <c r="K19" t="n">
-        <v>74.69081637972945</v>
+        <v>74.69081637972948</v>
       </c>
       <c r="L19" t="n">
-        <v>95.57852981800438</v>
+        <v>95.57852981800441</v>
       </c>
       <c r="M19" t="n">
         <v>100.7741585943408</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428694</v>
+        <v>98.37797434428697</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350815</v>
+        <v>90.86798224350818</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833494</v>
+        <v>77.75325673833495</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060158</v>
+        <v>53.8323247006016</v>
       </c>
       <c r="R19" t="n">
-        <v>28.90616414821141</v>
+        <v>28.90616414821142</v>
       </c>
       <c r="S19" t="n">
         <v>11.20362245695942</v>
       </c>
       <c r="T19" t="n">
-        <v>2.746845359817906</v>
+        <v>2.746845359817907</v>
       </c>
       <c r="U19" t="n">
         <v>0.03506611097639886</v>
@@ -32466,19 +32466,19 @@
         <v>1.433187785300051</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67763440620415</v>
+        <v>14.67763440620416</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278027</v>
+        <v>55.25297209278029</v>
       </c>
       <c r="J20" t="n">
-        <v>121.6400217926103</v>
+        <v>121.6400217926104</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443616</v>
       </c>
       <c r="L20" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287381</v>
       </c>
       <c r="M20" t="n">
         <v>251.6552347055678</v>
@@ -32487,22 +32487,22 @@
         <v>255.7272795005516</v>
       </c>
       <c r="O20" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604743</v>
       </c>
       <c r="P20" t="n">
-        <v>206.0941950108791</v>
+        <v>206.0941950108792</v>
       </c>
       <c r="Q20" t="n">
         <v>154.768157449821</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835441</v>
+        <v>90.02748221835444</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752494</v>
+        <v>32.65876665752496</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150977</v>
+        <v>6.273779530150978</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146550228240041</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329478</v>
+        <v>0.766823068332948</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741891</v>
+        <v>7.405896475741893</v>
       </c>
       <c r="I21" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234054</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210539</v>
+        <v>72.44796366210541</v>
       </c>
       <c r="K21" t="n">
         <v>123.8251092404129</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4981403413271</v>
+        <v>166.4981403413272</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683964</v>
+        <v>194.2954765683965</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889276</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590237</v>
+        <v>182.4467148590238</v>
       </c>
       <c r="P21" t="n">
         <v>146.4295734608767</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088646</v>
+        <v>97.88429202088649</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807549</v>
+        <v>47.61029541807551</v>
       </c>
       <c r="S21" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T21" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833241</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453607</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339782</v>
+        <v>0.6428787012339784</v>
       </c>
       <c r="H22" t="n">
-        <v>5.71577608915301</v>
+        <v>5.715776089153012</v>
       </c>
       <c r="I22" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165456</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724227</v>
       </c>
       <c r="K22" t="n">
-        <v>74.69081637972945</v>
+        <v>74.69081637972948</v>
       </c>
       <c r="L22" t="n">
-        <v>95.57852981800438</v>
+        <v>95.57852981800441</v>
       </c>
       <c r="M22" t="n">
         <v>100.7741585943408</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428694</v>
+        <v>98.37797434428697</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350815</v>
+        <v>90.86798224350818</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833494</v>
+        <v>77.75325673833495</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060158</v>
+        <v>53.8323247006016</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821141</v>
+        <v>28.90616414821142</v>
       </c>
       <c r="S22" t="n">
         <v>11.20362245695942</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817906</v>
+        <v>2.746845359817907</v>
       </c>
       <c r="U22" t="n">
         <v>0.03506611097639886</v>
@@ -34392,7 +34392,7 @@
         <v>263.5948646478088</v>
       </c>
       <c r="R44" t="n">
-        <v>153.3311656670989</v>
+        <v>153.3311656670988</v>
       </c>
       <c r="S44" t="n">
         <v>55.62309016598437</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.960183850264244</v>
+        <v>3.960183850264258</v>
       </c>
       <c r="K11" t="n">
-        <v>39.24845756512417</v>
+        <v>39.2484575651242</v>
       </c>
       <c r="L11" t="n">
-        <v>72.91961169824634</v>
+        <v>72.91961169824637</v>
       </c>
       <c r="M11" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078406</v>
       </c>
       <c r="N11" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627676</v>
       </c>
       <c r="O11" t="n">
-        <v>91.9121810363778</v>
+        <v>91.91218103637786</v>
       </c>
       <c r="P11" t="n">
-        <v>55.79274776995396</v>
+        <v>55.79274776995399</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.26945903142885</v>
+        <v>10.26945903142888</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.22817390707955</v>
+        <v>34.22817390707958</v>
       </c>
       <c r="L12" t="n">
-        <v>76.43779348440891</v>
+        <v>76.43779348440894</v>
       </c>
       <c r="M12" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190846</v>
       </c>
       <c r="N12" t="n">
         <v>114.0657868347609</v>
       </c>
       <c r="O12" t="n">
-        <v>89.7591559701349</v>
+        <v>89.7591559701351</v>
       </c>
       <c r="P12" t="n">
-        <v>59.34620864156204</v>
+        <v>59.34620864156207</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.896138864972485</v>
+        <v>6.8961388649725</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>15.3770367050832</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="L13" t="n">
-        <v>121.891631658108</v>
+        <v>7.903490235199527</v>
       </c>
       <c r="M13" t="n">
-        <v>121.891631658108</v>
+        <v>78.30381986551141</v>
       </c>
       <c r="N13" t="n">
-        <v>121.891631658108</v>
+        <v>15.3823704418854</v>
       </c>
       <c r="O13" t="n">
-        <v>59.67762853692536</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.28908871075407</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264215</v>
+        <v>3.960183850264258</v>
       </c>
       <c r="K14" t="n">
-        <v>39.24845756512414</v>
+        <v>39.2484575651242</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824631</v>
+        <v>72.91961169824637</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078406</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627676</v>
       </c>
       <c r="O14" t="n">
-        <v>91.91218103637777</v>
+        <v>91.91218103637786</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995393</v>
+        <v>55.79274776995399</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142882</v>
+        <v>10.26945903142888</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707954</v>
+        <v>34.22817390707958</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440889</v>
+        <v>76.43779348440894</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9083545190848</v>
+        <v>101.9083545190846</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347608</v>
+        <v>114.0657868347609</v>
       </c>
       <c r="O15" t="n">
-        <v>89.75915597013484</v>
+        <v>89.75915597013493</v>
       </c>
       <c r="P15" t="n">
-        <v>59.34620864156201</v>
+        <v>59.34620864156207</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.896138864972471</v>
+        <v>6.8961388649725</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>15.3770367050832</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="L16" t="n">
-        <v>121.891631658108</v>
+        <v>28.0469891401464</v>
       </c>
       <c r="M16" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="N16" t="n">
-        <v>15.38237044188537</v>
+        <v>15.3823704418854</v>
       </c>
       <c r="O16" t="n">
-        <v>121.891631658108</v>
+        <v>0.8712322498103759</v>
       </c>
       <c r="P16" t="n">
-        <v>44.29525809504</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.28908871075406</v>
+        <v>57.28908871075408</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264215</v>
+        <v>3.960183850264258</v>
       </c>
       <c r="K17" t="n">
-        <v>39.24845756512414</v>
+        <v>39.2484575651242</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824631</v>
+        <v>72.91961169824637</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078406</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627676</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637777</v>
+        <v>91.91218103637786</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995393</v>
+        <v>55.79274776995399</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142882</v>
+        <v>10.26945903142888</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707954</v>
+        <v>34.22817390707958</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440889</v>
+        <v>76.43779348440894</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190846</v>
       </c>
       <c r="N18" t="n">
-        <v>114.0657868347608</v>
+        <v>114.0657868347609</v>
       </c>
       <c r="O18" t="n">
-        <v>89.75915597013484</v>
+        <v>89.75915597013493</v>
       </c>
       <c r="P18" t="n">
-        <v>59.34620864156201</v>
+        <v>59.34620864156207</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972471</v>
+        <v>6.8961388649725</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>15.3770367050832</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="L19" t="n">
-        <v>121.891631658108</v>
+        <v>28.0469891401464</v>
       </c>
       <c r="M19" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="N19" t="n">
-        <v>121.891631658108</v>
+        <v>15.3823704418854</v>
       </c>
       <c r="O19" t="n">
-        <v>59.6776285369253</v>
+        <v>0.8712322498103759</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.28908871075406</v>
+        <v>57.28908871075408</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264215</v>
+        <v>3.960183850264258</v>
       </c>
       <c r="K20" t="n">
-        <v>39.24845756512414</v>
+        <v>39.2484575651242</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824631</v>
+        <v>72.91961169824637</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078406</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627676</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637777</v>
+        <v>91.91218103637786</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995393</v>
+        <v>55.79274776995399</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142882</v>
+        <v>10.26945903142888</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707954</v>
+        <v>34.22817390707958</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440889</v>
+        <v>76.43779348440894</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190846</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347608</v>
+        <v>114.0657868347609</v>
       </c>
       <c r="O21" t="n">
-        <v>89.75915597013484</v>
+        <v>89.75915597013493</v>
       </c>
       <c r="P21" t="n">
-        <v>59.34620864156201</v>
+        <v>59.34620864156207</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972471</v>
+        <v>6.8961388649725</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.37703670508319</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7.903490235199499</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="M22" t="n">
-        <v>121.8916316581079</v>
+        <v>116.9667172476795</v>
       </c>
       <c r="N22" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="O22" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="P22" t="n">
-        <v>36.39710159664267</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.28908871075406</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>40.94598350533627</v>
+        <v>237.647998636374</v>
       </c>
       <c r="K24" t="n">
         <v>121.2969814002119</v>
       </c>
       <c r="L24" t="n">
-        <v>375.620432003228</v>
+        <v>193.512550117147</v>
       </c>
       <c r="M24" t="n">
         <v>238.5290734499658</v>
       </c>
       <c r="N24" t="n">
-        <v>416.4334477498057</v>
+        <v>254.3024496681057</v>
       </c>
       <c r="O24" t="n">
         <v>218.0483050067199</v>
@@ -36457,10 +36457,10 @@
         <v>162.309560914588</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.72441312089025</v>
+        <v>165.8512215392689</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.41005641836514</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.33670977247569</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>209.8720345398937</v>
@@ -36527,16 +36527,16 @@
         <v>359.8077815684197</v>
       </c>
       <c r="N25" t="n">
-        <v>130.6965327118274</v>
+        <v>352.5934204131404</v>
       </c>
       <c r="O25" t="n">
-        <v>319.1109208447273</v>
+        <v>260.0191800235486</v>
       </c>
       <c r="P25" t="n">
-        <v>253.5132375192904</v>
+        <v>42.90299874938628</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>95.14180166224595</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>40.94598350533627</v>
+        <v>237.647998636374</v>
       </c>
       <c r="K27" t="n">
-        <v>408.1258049496277</v>
+        <v>121.2969814002119</v>
       </c>
       <c r="L27" t="n">
         <v>193.512550117147</v>
@@ -36694,7 +36694,7 @@
         <v>162.309560914588</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.72441312089025</v>
+        <v>165.8512215392682</v>
       </c>
       <c r="R27" t="n">
         <v>57.41005641836514</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>209.8720345398937</v>
+        <v>43.35175904223574</v>
       </c>
       <c r="L28" t="n">
         <v>328.5709801941117</v>
@@ -36764,13 +36764,13 @@
         <v>359.8077815684197</v>
       </c>
       <c r="N28" t="n">
-        <v>178.033242484303</v>
+        <v>352.5934204131404</v>
       </c>
       <c r="O28" t="n">
         <v>319.1109208447273</v>
       </c>
       <c r="P28" t="n">
-        <v>253.5132375192904</v>
+        <v>245.4733350881112</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>237.647998636374</v>
+        <v>40.94598350533627</v>
       </c>
       <c r="K30" t="n">
         <v>121.2969814002119</v>
@@ -36928,13 +36928,13 @@
         <v>218.0483050067199</v>
       </c>
       <c r="P30" t="n">
-        <v>162.309560914588</v>
+        <v>178.8278720144446</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.8512215392684</v>
+        <v>403.4449819888148</v>
       </c>
       <c r="R30" t="n">
-        <v>57.41005641836514</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.33670977247569</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>209.8720345398937</v>
+        <v>43.35175904223574</v>
       </c>
       <c r="L31" t="n">
-        <v>106.674092492799</v>
+        <v>328.5709801941117</v>
       </c>
       <c r="M31" t="n">
         <v>359.8077815684197</v>
@@ -37007,7 +37007,7 @@
         <v>319.1109208447273</v>
       </c>
       <c r="P31" t="n">
-        <v>253.5132375192904</v>
+        <v>245.4733350881114</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>237.647998636374</v>
+        <v>57.4642946051933</v>
       </c>
       <c r="K33" t="n">
         <v>121.2969814002119</v>
@@ -37168,10 +37168,10 @@
         <v>162.309560914588</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.8512215392687</v>
+        <v>403.4449819888148</v>
       </c>
       <c r="R33" t="n">
-        <v>57.41005641836514</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>209.8720345398937</v>
+        <v>43.35175904223574</v>
       </c>
       <c r="L34" t="n">
-        <v>75.11044578928681</v>
+        <v>328.5709801941117</v>
       </c>
       <c r="M34" t="n">
         <v>359.8077815684197</v>
@@ -37244,10 +37244,10 @@
         <v>319.1109208447273</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2717923330326</v>
+        <v>245.4733350881116</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.14180166224595</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>237.647998636374</v>
       </c>
       <c r="K36" t="n">
-        <v>268.8338462369551</v>
+        <v>211.4237898185902</v>
       </c>
       <c r="L36" t="n">
         <v>193.512550117147</v>
@@ -37408,7 +37408,7 @@
         <v>75.72441312089025</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.41005641836514</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>47.33670977247569</v>
       </c>
       <c r="K37" t="n">
-        <v>43.35175904223574</v>
+        <v>209.8720345398937</v>
       </c>
       <c r="L37" t="n">
-        <v>328.5709801941117</v>
+        <v>317.2843312627032</v>
       </c>
       <c r="M37" t="n">
         <v>359.8077815684197</v>
       </c>
       <c r="N37" t="n">
-        <v>202.0750065472394</v>
+        <v>352.5934204131404</v>
       </c>
       <c r="O37" t="n">
         <v>319.1109208447273</v>
       </c>
       <c r="P37" t="n">
-        <v>253.5132375192904</v>
+        <v>42.90299874938628</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.14180166224595</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>237.647998636374</v>
+        <v>40.94598350533627</v>
       </c>
       <c r="K39" t="n">
-        <v>211.4237898185899</v>
+        <v>121.2969814002119</v>
       </c>
       <c r="L39" t="n">
         <v>193.512550117147</v>
@@ -37642,10 +37642,10 @@
         <v>162.309560914588</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.72441312089025</v>
+        <v>403.4449819888148</v>
       </c>
       <c r="R39" t="n">
-        <v>57.41005641836514</v>
+        <v>16.518311099857</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>209.8720345398937</v>
+        <v>43.35175904223574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.214000133805</v>
+        <v>320.5310777629331</v>
       </c>
       <c r="M40" t="n">
         <v>359.8077815684197</v>
@@ -37715,13 +37715,13 @@
         <v>352.5934204131404</v>
       </c>
       <c r="O40" t="n">
-        <v>64.76592131395061</v>
+        <v>319.1109208447273</v>
       </c>
       <c r="P40" t="n">
         <v>253.5132375192904</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.14180166224595</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>238.5290734499658</v>
       </c>
       <c r="N42" t="n">
-        <v>254.3024496681057</v>
+        <v>416.4334477498058</v>
       </c>
       <c r="O42" t="n">
         <v>218.0483050067199</v>
@@ -37879,7 +37879,7 @@
         <v>162.309560914588</v>
       </c>
       <c r="Q42" t="n">
-        <v>362.553236670306</v>
+        <v>200.4222385886061</v>
       </c>
       <c r="R42" t="n">
         <v>57.41005641836514</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>209.8720345398937</v>
+        <v>43.35175904223574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.214000133805</v>
+        <v>320.5310777629326</v>
       </c>
       <c r="M43" t="n">
         <v>359.8077815684197</v>
@@ -37952,13 +37952,13 @@
         <v>352.5934204131404</v>
       </c>
       <c r="O43" t="n">
-        <v>64.76592131395061</v>
+        <v>319.1109208447273</v>
       </c>
       <c r="P43" t="n">
         <v>253.5132375192904</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.14180166224595</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>119.0961662294166</v>
       </c>
       <c r="R44" t="n">
-        <v>13.20056608791299</v>
+        <v>13.20056608791297</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>40.94598350533627</v>
       </c>
       <c r="K45" t="n">
-        <v>408.1258049496277</v>
+        <v>121.2969814002119</v>
       </c>
       <c r="L45" t="n">
         <v>193.512550117147</v>
@@ -38113,13 +38113,13 @@
         <v>218.0483050067199</v>
       </c>
       <c r="P45" t="n">
-        <v>162.309560914588</v>
+        <v>416.4334477498058</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.72441312089025</v>
+        <v>165.8394062534536</v>
       </c>
       <c r="R45" t="n">
-        <v>57.41005641836514</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>47.33670977247569</v>
       </c>
       <c r="K46" t="n">
         <v>209.8720345398937</v>
       </c>
       <c r="L46" t="n">
-        <v>328.5709801941117</v>
+        <v>106.674092492799</v>
       </c>
       <c r="M46" t="n">
-        <v>90.10580197733634</v>
+        <v>359.8077815684197</v>
       </c>
       <c r="N46" t="n">
         <v>352.5934204131404</v>
@@ -38195,7 +38195,7 @@
         <v>253.5132375192904</v>
       </c>
       <c r="Q46" t="n">
-        <v>95.14180166224595</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
